--- a/dataset/sql_datasets/record.xlsx
+++ b/dataset/sql_datasets/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC84A9E-753B-42A6-B0E4-4C289151F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74986032-2DDF-4279-AB89-473B68AAFB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29295" windowHeight="26325" xr2:uid="{B0E4A0B2-835F-4CB5-9286-B062CDE8A4C7}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{B0E4A0B2-835F-4CB5-9286-B062CDE8A4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="15" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="452">
   <si>
     <t>Event</t>
   </si>
@@ -1585,24 +1585,6 @@
   </si>
   <si>
     <t>WDB</t>
-  </si>
-  <si>
-    <t>idParticipant</t>
-  </si>
-  <si>
-    <t>idSport</t>
-  </si>
-  <si>
-    <t>idRecord</t>
-  </si>
-  <si>
-    <t>recordType</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>round</t>
   </si>
 </sst>
 </file>
@@ -2559,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2230AD7-0197-4631-BAA9-1043F7828522}">
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,34 +2558,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" t="s">
-        <v>453</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3590</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>455</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" t="s">
-        <v>456</v>
+        <v>449</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3590</v>
+        <v>3561</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
@@ -2617,10 +2599,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3561</v>
+        <v>3616</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -2637,10 +2619,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3616</v>
+        <v>3590</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -2657,30 +2639,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3590</v>
+        <v>4989</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>449</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4989</v>
+        <v>4982</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -2689,55 +2671,55 @@
         <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>4982</v>
+        <v>4855</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>4855</v>
+        <v>4781</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>441</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>4781</v>
@@ -2746,18 +2728,18 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4781</v>
@@ -2769,41 +2751,41 @@
         <v>444</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>4781</v>
+        <v>4220</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>4220</v>
+        <v>644</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>134</v>
@@ -2812,18 +2794,18 @@
         <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>644</v>
+        <v>4476</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>134</v>
@@ -2837,67 +2819,67 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>4476</v>
+        <v>4694</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>4694</v>
+        <v>4181</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>4181</v>
+        <v>4875</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>4875</v>
@@ -2909,15 +2891,15 @@
         <v>439</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>4875</v>
@@ -2929,7 +2911,7 @@
         <v>439</v>
       </c>
       <c r="E18" t="s">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>438</v>
@@ -2937,33 +2919,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>4875</v>
+        <v>4826</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>439</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>4826</v>
+        <v>4573</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>170</v>
@@ -2972,35 +2954,35 @@
         <v>32</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>4573</v>
+        <v>561</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>437</v>
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44412</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22">
         <v>107</v>
@@ -3017,30 +2999,30 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="C23">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -3057,10 +3039,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C25">
         <v>101</v>
@@ -3069,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2">
         <v>44411</v>
@@ -3077,10 +3059,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C26">
         <v>101</v>
@@ -3097,10 +3079,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C27">
         <v>101</v>
@@ -3117,10 +3099,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C28">
         <v>101</v>
@@ -3137,19 +3119,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="C29">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2">
         <v>44411</v>
@@ -3157,7 +3139,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>567</v>
@@ -3169,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
         <v>44411</v>
@@ -3177,10 +3159,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>567</v>
+        <v>670</v>
       </c>
       <c r="C31">
         <v>103</v>
@@ -3197,30 +3179,30 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>670</v>
+        <v>714</v>
       </c>
       <c r="C32">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C33">
         <v>104</v>
@@ -3229,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2">
         <v>44412</v>
@@ -3237,30 +3219,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C34">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C35">
         <v>109</v>
@@ -3277,13 +3259,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>696</v>
+        <v>529</v>
       </c>
       <c r="C36">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -3292,15 +3274,15 @@
         <v>40</v>
       </c>
       <c r="F36" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -3317,30 +3299,30 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2">
-        <v>44412</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C39">
         <v>101</v>
@@ -3357,10 +3339,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C40">
         <v>101</v>
@@ -3369,18 +3351,18 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C41">
         <v>101</v>
@@ -3397,27 +3379,27 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2">
-        <v>44414</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>622</v>
@@ -3429,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
         <v>44411</v>
@@ -3437,19 +3419,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>622</v>
       </c>
       <c r="C44">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2">
         <v>44411</v>
@@ -3457,10 +3439,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="C45">
         <v>108</v>
@@ -3469,7 +3451,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2">
         <v>44411</v>
@@ -3477,10 +3459,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="C46">
         <v>108</v>
@@ -3497,10 +3479,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C47">
         <v>108</v>
@@ -3517,30 +3499,30 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>634</v>
+        <v>4118</v>
       </c>
       <c r="C48">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="F48" s="2">
-        <v>44411</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>4118</v>
+        <v>4111</v>
       </c>
       <c r="C49">
         <v>192</v>
@@ -3549,7 +3531,7 @@
         <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F49" s="2">
         <v>44415</v>
@@ -3557,10 +3539,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>4111</v>
+        <v>4100</v>
       </c>
       <c r="C50">
         <v>192</v>
@@ -3569,7 +3551,7 @@
         <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F50" s="2">
         <v>44415</v>
@@ -3577,30 +3559,30 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>4100</v>
+        <v>4154</v>
       </c>
       <c r="C51">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F51" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>4154</v>
+        <v>4139</v>
       </c>
       <c r="C52">
         <v>193</v>
@@ -3609,7 +3591,7 @@
         <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F52" s="2">
         <v>44414</v>
@@ -3617,10 +3599,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>4139</v>
+        <v>4171</v>
       </c>
       <c r="C53">
         <v>193</v>
@@ -3629,7 +3611,7 @@
         <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F53" s="2">
         <v>44414</v>
@@ -3637,10 +3619,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>4171</v>
+        <v>4161</v>
       </c>
       <c r="C54">
         <v>193</v>
@@ -3649,7 +3631,7 @@
         <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F54" s="2">
         <v>44414</v>
@@ -3657,30 +3639,30 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>4161</v>
+        <v>5774</v>
       </c>
       <c r="C55">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2">
-        <v>44414</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>5774</v>
+        <v>5773</v>
       </c>
       <c r="C56">
         <v>197</v>
@@ -3697,10 +3679,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="C57">
         <v>197</v>
@@ -3709,18 +3691,18 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2">
-        <v>44405</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>5774</v>
+        <v>5773</v>
       </c>
       <c r="C58">
         <v>197</v>
@@ -3737,10 +3719,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>5773</v>
+        <v>5776</v>
       </c>
       <c r="C59">
         <v>197</v>
@@ -3757,10 +3739,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="C60">
         <v>197</v>
@@ -3777,30 +3759,30 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>5775</v>
+        <v>5737</v>
       </c>
       <c r="C61">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2">
-        <v>44400</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="C62">
         <v>203</v>
@@ -3817,16 +3799,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>5738</v>
+        <v>5740</v>
       </c>
       <c r="C63">
         <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -3837,10 +3819,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="C64">
         <v>203</v>
@@ -3857,50 +3839,50 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>5739</v>
+        <v>5810</v>
       </c>
       <c r="C65">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F65" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>5810</v>
+        <v>5688</v>
       </c>
       <c r="C66">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F66" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>5688</v>
+        <v>5680</v>
       </c>
       <c r="C67">
         <v>206</v>
@@ -3917,10 +3899,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>5680</v>
+        <v>5687</v>
       </c>
       <c r="C68">
         <v>206</v>
@@ -3937,10 +3919,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>5687</v>
+        <v>5679</v>
       </c>
       <c r="C69">
         <v>206</v>
@@ -3957,19 +3939,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>5679</v>
+        <v>5596</v>
       </c>
       <c r="C70">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F70" s="2">
         <v>44405</v>
@@ -3977,19 +3959,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>5596</v>
+        <v>5696</v>
       </c>
       <c r="C71">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2">
         <v>44405</v>
@@ -3997,19 +3979,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5696</v>
+        <v>5692</v>
       </c>
       <c r="C72">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="F72" s="2">
         <v>44405</v>
@@ -4017,10 +3999,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="C73">
         <v>202</v>
@@ -4037,10 +4019,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="C74">
         <v>202</v>
@@ -4049,18 +4031,18 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2">
-        <v>44405</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="C75">
         <v>202</v>
@@ -4077,30 +4059,30 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>5691</v>
+        <v>5620</v>
       </c>
       <c r="C76">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F76" s="2">
-        <v>44401</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>5620</v>
+        <v>5625</v>
       </c>
       <c r="C77">
         <v>204</v>
@@ -4117,10 +4099,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="C78">
         <v>204</v>
@@ -4137,10 +4119,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>5626</v>
+        <v>5619</v>
       </c>
       <c r="C79">
         <v>204</v>
@@ -4157,53 +4139,53 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>5619</v>
+        <v>5732</v>
       </c>
       <c r="C80">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F80" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>5732</v>
+        <v>306</v>
       </c>
       <c r="C81">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
         <v>32</v>
       </c>
       <c r="F81" s="2">
-        <v>44407</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="C82">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -4212,15 +4194,15 @@
         <v>32</v>
       </c>
       <c r="F82" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83">
         <v>226</v>
@@ -4229,7 +4211,7 @@
         <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F83" s="2">
         <v>44402</v>
@@ -4237,50 +4219,50 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C84">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E84" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F84" s="2">
-        <v>44402</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="C85">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
       </c>
       <c r="F85" s="2">
-        <v>44410</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C86">
         <v>233</v>
@@ -4289,7 +4271,7 @@
         <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2">
         <v>44403</v>
@@ -4297,10 +4279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C87">
         <v>233</v>
@@ -4317,30 +4299,30 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="C88">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F88" s="2">
-        <v>44403</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C89">
         <v>235</v>
@@ -4357,30 +4339,30 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="C90">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2">
-        <v>44406</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C91">
         <v>224</v>
@@ -4397,16 +4379,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="C92">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E92" t="s">
         <v>130</v>
@@ -4417,10 +4399,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C93">
         <v>227</v>
@@ -4437,30 +4419,30 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
       </c>
       <c r="F94" s="2">
-        <v>44404</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>236</v>
@@ -4477,10 +4459,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>236</v>
@@ -4497,10 +4479,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>236</v>
@@ -4517,39 +4499,39 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="C98">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
       </c>
       <c r="E98" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F98" s="2">
-        <v>44408</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C99">
         <v>225</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2">
         <v>44402</v>
@@ -4557,30 +4539,30 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C100">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E100" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F100" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="C101">
         <v>228</v>
@@ -4589,7 +4571,7 @@
         <v>134</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F101" s="2">
         <v>44401</v>
@@ -4597,30 +4579,30 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="C102">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F102" s="2">
-        <v>44401</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="C103">
         <v>229</v>
@@ -4637,13 +4619,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="C104">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4652,15 +4634,15 @@
         <v>32</v>
       </c>
       <c r="F104" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C105">
         <v>231</v>
@@ -4669,7 +4651,7 @@
         <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2">
         <v>44408</v>
@@ -4677,39 +4659,39 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="C106">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F106" s="2">
-        <v>44408</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C107">
         <v>234</v>
       </c>
       <c r="D107" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2">
         <v>44403</v>
@@ -4717,27 +4699,27 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F108" s="2">
-        <v>44403</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -4746,10 +4728,10 @@
         <v>237</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F109" s="2">
         <v>44406</v>
@@ -4757,47 +4739,47 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>2358</v>
       </c>
       <c r="C110">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E110" t="s">
         <v>130</v>
       </c>
       <c r="F110" s="2">
-        <v>44406</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>2358</v>
+        <v>2379</v>
       </c>
       <c r="C111">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D111" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E111" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F111" s="2">
-        <v>44411</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>2379</v>
@@ -4806,38 +4788,38 @@
         <v>243</v>
       </c>
       <c r="D112" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>2379</v>
+        <v>5085</v>
       </c>
       <c r="C113">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F113" s="2">
-        <v>44412</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>5085</v>
@@ -4846,18 +4828,18 @@
         <v>249</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2">
-        <v>44408</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>5085</v>
@@ -4869,18 +4851,18 @@
         <v>134</v>
       </c>
       <c r="E115" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F115" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>5085</v>
+        <v>5070</v>
       </c>
       <c r="C116">
         <v>249</v>
@@ -4897,33 +4879,33 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>5070</v>
+        <v>5085</v>
       </c>
       <c r="C117">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F117" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>5085</v>
+        <v>5116</v>
       </c>
       <c r="C118">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4932,18 +4914,18 @@
         <v>32</v>
       </c>
       <c r="F118" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>5116</v>
+        <v>5034</v>
       </c>
       <c r="C119">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4952,18 +4934,18 @@
         <v>32</v>
       </c>
       <c r="F119" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>5034</v>
+        <v>5070</v>
       </c>
       <c r="C120">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4972,35 +4954,35 @@
         <v>32</v>
       </c>
       <c r="F120" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>5070</v>
+        <v>5106</v>
       </c>
       <c r="C121">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D121" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E121" t="s">
         <v>32</v>
       </c>
       <c r="F121" s="2">
-        <v>44405</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>5106</v>
+        <v>5085</v>
       </c>
       <c r="C122">
         <v>268</v>
@@ -5017,10 +4999,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>5085</v>
+        <v>5118</v>
       </c>
       <c r="C123">
         <v>268</v>
@@ -5037,16 +5019,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>5118</v>
+        <v>5085</v>
       </c>
       <c r="C124">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D124" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E124" t="s">
         <v>32</v>
@@ -5057,50 +5039,50 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>5085</v>
+        <v>5128</v>
       </c>
       <c r="C125">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2">
-        <v>44409</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>5128</v>
+        <v>5097</v>
       </c>
       <c r="C126">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E126" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F126" s="2">
-        <v>44404</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>5097</v>
+        <v>5127</v>
       </c>
       <c r="C127">
         <v>267</v>
@@ -5117,10 +5099,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>5127</v>
+        <v>5122</v>
       </c>
       <c r="C128">
         <v>267</v>
@@ -5137,30 +5119,30 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>5122</v>
+        <v>5097</v>
       </c>
       <c r="C129">
         <v>267</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2">
-        <v>44408</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>5097</v>
+        <v>5122</v>
       </c>
       <c r="C130">
         <v>267</v>
@@ -5177,30 +5159,30 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>5122</v>
+        <v>5052</v>
       </c>
       <c r="C131">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F131" s="2">
-        <v>44406</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="C132">
         <v>246</v>
@@ -5209,18 +5191,18 @@
         <v>134</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2">
-        <v>44404</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>5051</v>
+        <v>5052</v>
       </c>
       <c r="C133">
         <v>246</v>
@@ -5237,10 +5219,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>5052</v>
+        <v>5044</v>
       </c>
       <c r="C134">
         <v>246</v>
@@ -5257,7 +5239,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>5044</v>
@@ -5269,58 +5251,58 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F135" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>5044</v>
+        <v>5020</v>
       </c>
       <c r="C136">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="F136" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>5020</v>
+        <v>5041</v>
       </c>
       <c r="C137">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
       </c>
       <c r="E137" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F137" s="2">
-        <v>44402</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>5041</v>
+        <v>5039</v>
       </c>
       <c r="C138">
         <v>252</v>
@@ -5332,15 +5314,15 @@
         <v>32</v>
       </c>
       <c r="F138" s="2">
-        <v>44407</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>5039</v>
+        <v>5041</v>
       </c>
       <c r="C139">
         <v>252</v>
@@ -5349,21 +5331,21 @@
         <v>134</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2">
-        <v>44402</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>5041</v>
+        <v>5016</v>
       </c>
       <c r="C140">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -5372,32 +5354,32 @@
         <v>72</v>
       </c>
       <c r="F140" s="2">
-        <v>44405</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="C141">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E141" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F141" s="2">
-        <v>44403</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>5020</v>
@@ -5406,44 +5388,44 @@
         <v>258</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>5020</v>
+        <v>5043</v>
       </c>
       <c r="C143">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F143" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>5043</v>
+        <v>5017</v>
       </c>
       <c r="C144">
-        <v>260</v>
+        <v>2622</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
@@ -5452,35 +5434,35 @@
         <v>32</v>
       </c>
       <c r="F144" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>5017</v>
+        <v>5038</v>
       </c>
       <c r="C145">
-        <v>2622</v>
+        <v>266</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E145" t="s">
         <v>32</v>
       </c>
       <c r="F145" s="2">
-        <v>44405</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>5038</v>
+        <v>5041</v>
       </c>
       <c r="C146">
         <v>266</v>
@@ -5497,30 +5479,30 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>5041</v>
+        <v>5038</v>
       </c>
       <c r="C147">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D147" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E147" t="s">
         <v>32</v>
       </c>
       <c r="F147" s="2">
-        <v>44402</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>5038</v>
+        <v>5041</v>
       </c>
       <c r="C148">
         <v>267</v>
@@ -5537,10 +5519,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>5041</v>
+        <v>5052</v>
       </c>
       <c r="C149">
         <v>267</v>
@@ -5557,30 +5539,30 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>5052</v>
+        <v>5155</v>
       </c>
       <c r="C150">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D150" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E150" t="s">
         <v>32</v>
       </c>
       <c r="F150" s="2">
-        <v>44409</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>5155</v>
+        <v>5134</v>
       </c>
       <c r="C151">
         <v>269</v>
@@ -5597,10 +5579,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>5134</v>
+        <v>5157</v>
       </c>
       <c r="C152">
         <v>269</v>
@@ -5617,10 +5599,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>5157</v>
+        <v>5043</v>
       </c>
       <c r="C153">
         <v>269</v>
@@ -5637,27 +5619,27 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="C154">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E154" t="s">
         <v>32</v>
       </c>
       <c r="F154" s="2">
-        <v>44406</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>5041</v>
@@ -5669,15 +5651,15 @@
         <v>134</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F155" s="2">
-        <v>44409</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>5041</v>
@@ -5689,47 +5671,47 @@
         <v>134</v>
       </c>
       <c r="E156" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F156" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>5041</v>
+        <v>1881</v>
       </c>
       <c r="C157">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="D157" t="s">
         <v>134</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="F157" s="2">
-        <v>44408</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>1881</v>
+        <v>789</v>
       </c>
       <c r="C158">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D158" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E158" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="F158" s="2">
         <v>44412</v>
@@ -5737,7 +5719,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>789</v>
@@ -5749,24 +5731,24 @@
         <v>170</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F159" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>789</v>
+        <v>1935</v>
       </c>
       <c r="C160">
         <v>129</v>
       </c>
       <c r="D160" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E160" t="s">
         <v>239</v>
@@ -5777,10 +5759,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="C161">
         <v>129</v>
@@ -5789,38 +5771,38 @@
         <v>134</v>
       </c>
       <c r="E161" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F161" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>1929</v>
+        <v>1881</v>
       </c>
       <c r="C162">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D162" t="s">
         <v>134</v>
       </c>
       <c r="E162" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="F162" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>1881</v>
+        <v>1866</v>
       </c>
       <c r="C163">
         <v>131</v>
@@ -5837,10 +5819,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>1866</v>
+        <v>1888</v>
       </c>
       <c r="C164">
         <v>131</v>
@@ -5849,7 +5831,7 @@
         <v>134</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F164" s="2">
         <v>44411</v>
@@ -5857,10 +5839,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>1888</v>
+        <v>1895</v>
       </c>
       <c r="C165">
         <v>131</v>
@@ -5877,10 +5859,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>1895</v>
+        <v>1867</v>
       </c>
       <c r="C166">
         <v>131</v>
@@ -5897,10 +5879,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="C167">
         <v>131</v>
@@ -5917,10 +5899,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="C168">
         <v>131</v>
@@ -5937,10 +5919,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>1883</v>
+        <v>1866</v>
       </c>
       <c r="C169">
         <v>131</v>
@@ -5957,10 +5939,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C170">
         <v>131</v>
@@ -5977,10 +5959,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>1864</v>
+        <v>1896</v>
       </c>
       <c r="C171">
         <v>131</v>
@@ -5989,7 +5971,7 @@
         <v>134</v>
       </c>
       <c r="E171" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F171" s="2">
         <v>44411</v>
@@ -5997,10 +5979,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C172">
         <v>131</v>
@@ -6017,10 +5999,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
-        <v>1895</v>
+        <v>1867</v>
       </c>
       <c r="C173">
         <v>131</v>
@@ -6037,10 +6019,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C174">
         <v>131</v>
@@ -6057,10 +6039,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C175">
         <v>131</v>
@@ -6077,13 +6059,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>1864</v>
+        <v>1916</v>
       </c>
       <c r="C176">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D176" t="s">
         <v>134</v>
@@ -6092,35 +6074,35 @@
         <v>235</v>
       </c>
       <c r="F176" s="2">
-        <v>44411</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>1916</v>
+        <v>1491</v>
       </c>
       <c r="C177">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D177" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E177" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="F177" s="2">
-        <v>44414</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>1491</v>
+        <v>730</v>
       </c>
       <c r="C178">
         <v>130</v>
@@ -6137,10 +6119,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>730</v>
+        <v>784</v>
       </c>
       <c r="C179">
         <v>130</v>
@@ -6157,10 +6139,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>784</v>
+        <v>1918</v>
       </c>
       <c r="C180">
         <v>130</v>
@@ -6169,7 +6151,7 @@
         <v>170</v>
       </c>
       <c r="E180" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F180" s="2">
         <v>44411</v>
@@ -6177,10 +6159,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>1918</v>
+        <v>1491</v>
       </c>
       <c r="C181">
         <v>130</v>
@@ -6197,10 +6179,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>1491</v>
+        <v>730</v>
       </c>
       <c r="C182">
         <v>130</v>
@@ -6217,10 +6199,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>730</v>
+        <v>1919</v>
       </c>
       <c r="C183">
         <v>130</v>
@@ -6237,10 +6219,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>1919</v>
+        <v>784</v>
       </c>
       <c r="C184">
         <v>130</v>
@@ -6257,10 +6239,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
-        <v>784</v>
+        <v>1491</v>
       </c>
       <c r="C185">
         <v>130</v>
@@ -6269,18 +6251,18 @@
         <v>170</v>
       </c>
       <c r="E185" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F185" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>1491</v>
+        <v>730</v>
       </c>
       <c r="C186">
         <v>130</v>
@@ -6297,10 +6279,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
-        <v>730</v>
+        <v>784</v>
       </c>
       <c r="C187">
         <v>130</v>
@@ -6317,19 +6299,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
-        <v>784</v>
+        <v>1899</v>
       </c>
       <c r="C188">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D188" t="s">
         <v>170</v>
       </c>
       <c r="E188" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F188" s="2">
         <v>44410</v>
@@ -6337,10 +6319,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
-        <v>1899</v>
+        <v>1915</v>
       </c>
       <c r="C189">
         <v>132</v>
@@ -6357,27 +6339,27 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
-        <v>1915</v>
+        <v>3766</v>
       </c>
       <c r="C190">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="D190" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E190" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="F190" s="2">
-        <v>44410</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>3766</v>
@@ -6386,7 +6368,7 @@
         <v>306</v>
       </c>
       <c r="D191" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E191" t="s">
         <v>324</v>
@@ -6397,7 +6379,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>3766</v>
@@ -6406,10 +6388,10 @@
         <v>306</v>
       </c>
       <c r="D192" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E192" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F192" s="2">
         <v>44412</v>
@@ -6417,7 +6399,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>3766</v>
@@ -6437,7 +6419,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>3766</v>
@@ -6446,7 +6428,7 @@
         <v>306</v>
       </c>
       <c r="D194" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E194" t="s">
         <v>320</v>
@@ -6457,7 +6439,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>3766</v>
@@ -6466,10 +6448,10 @@
         <v>306</v>
       </c>
       <c r="D195" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E195" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F195" s="2">
         <v>44412</v>
@@ -6477,7 +6459,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>3766</v>
@@ -6497,7 +6479,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>3766</v>
@@ -6506,7 +6488,7 @@
         <v>306</v>
       </c>
       <c r="D197" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E197" t="s">
         <v>329</v>
@@ -6517,30 +6499,30 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
-        <v>3766</v>
+        <v>3864</v>
       </c>
       <c r="C198">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D198" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E198" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F198" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>3864</v>
+        <v>3856</v>
       </c>
       <c r="C199">
         <v>308</v>
@@ -6549,7 +6531,7 @@
         <v>134</v>
       </c>
       <c r="E199" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F199" s="2">
         <v>44411</v>
@@ -6557,10 +6539,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>3856</v>
+        <v>3864</v>
       </c>
       <c r="C200">
         <v>308</v>
@@ -6569,7 +6551,7 @@
         <v>134</v>
       </c>
       <c r="E200" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F200" s="2">
         <v>44411</v>
@@ -6577,7 +6559,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>3864</v>
@@ -6597,10 +6579,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>3864</v>
+        <v>3856</v>
       </c>
       <c r="C202">
         <v>308</v>
@@ -6617,27 +6599,27 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>3856</v>
+        <v>3700</v>
       </c>
       <c r="C203">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D203" t="s">
         <v>134</v>
       </c>
       <c r="E203" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F203" s="2">
-        <v>44411</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>3700</v>
@@ -6649,7 +6631,7 @@
         <v>134</v>
       </c>
       <c r="E204" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F204" s="2">
         <v>44402</v>
@@ -6657,19 +6639,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>3700</v>
+        <v>3721</v>
       </c>
       <c r="C205">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
       </c>
       <c r="E205" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F205" s="2">
         <v>44402</v>
@@ -6677,10 +6659,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
-        <v>3721</v>
+        <v>3725</v>
       </c>
       <c r="C206">
         <v>314</v>
@@ -6689,7 +6671,7 @@
         <v>134</v>
       </c>
       <c r="E206" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F206" s="2">
         <v>44402</v>
@@ -6697,10 +6679,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>3725</v>
+        <v>3721</v>
       </c>
       <c r="C207">
         <v>314</v>
@@ -6717,27 +6699,27 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
-        <v>3721</v>
+        <v>3808</v>
       </c>
       <c r="C208">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D208" t="s">
         <v>134</v>
       </c>
       <c r="E208" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F208" s="2">
-        <v>44402</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>3808</v>
@@ -6749,7 +6731,7 @@
         <v>134</v>
       </c>
       <c r="E209" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F209" s="2">
         <v>44405</v>
@@ -6757,7 +6739,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>3808</v>
@@ -6777,7 +6759,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>3808</v>
@@ -6789,7 +6771,7 @@
         <v>134</v>
       </c>
       <c r="E211" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F211" s="2">
         <v>44405</v>
@@ -6797,7 +6779,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>3808</v>
@@ -6806,7 +6788,7 @@
         <v>315</v>
       </c>
       <c r="D212" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E212" t="s">
         <v>329</v>
@@ -6817,30 +6799,30 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213">
-        <v>3808</v>
+        <v>3738</v>
       </c>
       <c r="C213">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D213" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E213" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F213" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="C214">
         <v>317</v>
@@ -6857,7 +6839,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>3737</v>
@@ -6869,7 +6851,7 @@
         <v>134</v>
       </c>
       <c r="E215" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F215" s="2">
         <v>44408</v>
@@ -6877,7 +6859,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>3737</v>
@@ -6889,7 +6871,7 @@
         <v>134</v>
       </c>
       <c r="E216" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F216" s="2">
         <v>44408</v>
@@ -6897,7 +6879,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>3737</v>
@@ -6917,19 +6899,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218">
-        <v>3737</v>
+        <v>3835</v>
       </c>
       <c r="C218">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D218" t="s">
         <v>134</v>
       </c>
       <c r="E218" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F218" s="2">
         <v>44408</v>
@@ -6937,7 +6919,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>3835</v>
@@ -6949,7 +6931,7 @@
         <v>134</v>
       </c>
       <c r="E219" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F219" s="2">
         <v>44408</v>
@@ -6957,27 +6939,27 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220">
-        <v>3835</v>
+        <v>3748</v>
       </c>
       <c r="C220">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
       </c>
       <c r="E220" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F220" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>3748</v>
@@ -6997,7 +6979,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>3748</v>
@@ -7009,7 +6991,7 @@
         <v>134</v>
       </c>
       <c r="E222" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F222" s="2">
         <v>44410</v>
@@ -7017,7 +6999,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>3748</v>
@@ -7029,7 +7011,7 @@
         <v>134</v>
       </c>
       <c r="E223" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F223" s="2">
         <v>44410</v>
@@ -7037,7 +7019,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>3748</v>
@@ -7057,30 +7039,30 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225">
-        <v>3748</v>
+        <v>3822</v>
       </c>
       <c r="C225">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D225" t="s">
         <v>134</v>
       </c>
       <c r="E225" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F225" s="2">
-        <v>44410</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226">
-        <v>3822</v>
+        <v>3819</v>
       </c>
       <c r="C226">
         <v>309</v>
@@ -7097,7 +7079,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>3819</v>
@@ -7117,7 +7099,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>3819</v>
@@ -7129,7 +7111,7 @@
         <v>134</v>
       </c>
       <c r="E228" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F228" s="2">
         <v>44401</v>
@@ -7137,7 +7119,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>3819</v>
@@ -7157,7 +7139,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>3819</v>
@@ -7169,7 +7151,7 @@
         <v>134</v>
       </c>
       <c r="E230" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F230" s="2">
         <v>44401</v>
@@ -7177,7 +7159,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>3819</v>
@@ -7197,7 +7179,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>3819</v>
@@ -7217,27 +7199,27 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233">
-        <v>3819</v>
+        <v>3703</v>
       </c>
       <c r="C233">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D233" t="s">
         <v>134</v>
       </c>
       <c r="E233" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F233" s="2">
-        <v>44401</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>3703</v>
@@ -7257,10 +7239,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="C235">
         <v>310</v>
@@ -7277,7 +7259,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>3706</v>
@@ -7297,10 +7279,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237">
-        <v>3706</v>
+        <v>3701</v>
       </c>
       <c r="C237">
         <v>310</v>
@@ -7309,7 +7291,7 @@
         <v>134</v>
       </c>
       <c r="E237" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F237" s="2">
         <v>44403</v>
@@ -7317,10 +7299,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238">
-        <v>3701</v>
+        <v>3703</v>
       </c>
       <c r="C238">
         <v>310</v>
@@ -7329,7 +7311,7 @@
         <v>134</v>
       </c>
       <c r="E238" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F238" s="2">
         <v>44403</v>
@@ -7337,7 +7319,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>3703</v>
@@ -7357,10 +7339,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="C240">
         <v>310</v>
@@ -7377,7 +7359,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>3706</v>
@@ -7397,27 +7379,27 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242">
-        <v>3706</v>
+        <v>3787</v>
       </c>
       <c r="C242">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
       </c>
       <c r="E242" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F242" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>3787</v>
@@ -7429,7 +7411,7 @@
         <v>134</v>
       </c>
       <c r="E243" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F243" s="2">
         <v>44404</v>
@@ -7437,7 +7419,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>3787</v>
@@ -7449,35 +7431,15 @@
         <v>134</v>
       </c>
       <c r="E244" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F244" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245">
-        <v>3787</v>
-      </c>
-      <c r="C245">
-        <v>311</v>
-      </c>
-      <c r="D245" t="s">
-        <v>134</v>
-      </c>
-      <c r="E245" t="s">
-        <v>329</v>
-      </c>
-      <c r="F245" s="2">
-        <v>44404</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G245">
-    <sortCondition ref="E2:E245"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G244">
+    <sortCondition ref="E1:E244"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/sql_datasets/record.xlsx
+++ b/dataset/sql_datasets/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74986032-2DDF-4279-AB89-473B68AAFB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E736D-569D-4A55-9AE4-185FBB23E906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{B0E4A0B2-835F-4CB5-9286-B062CDE8A4C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0E4A0B2-835F-4CB5-9286-B062CDE8A4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="15" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Shooting" sheetId="9" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Records!$A$1:$F$245</definedName>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">'Canoe sprint_edit_'!$A$1:$G$22</definedName>
     <definedName name="ExternalData_11" localSheetId="3" hidden="1">'Track cycling_edit_'!$A$1:$G$18</definedName>
     <definedName name="ExternalData_12" localSheetId="2" hidden="1">'Women_edit_ (2)'!$A$1:$H$21</definedName>
@@ -2544,7 +2545,7 @@
   <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,753 +2560,753 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1">
-        <v>3590</v>
+        <v>4781</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>451</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>3561</v>
+        <v>4781</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="B3">
-        <v>3616</v>
+        <v>3766</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
         <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>450</v>
+        <v>324</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44412</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="B4">
-        <v>3590</v>
+        <v>3766</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>450</v>
+        <v>324</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44412</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="B5">
-        <v>4989</v>
+        <v>3864</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
         <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>448</v>
+        <v>324</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44411</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="B6">
-        <v>4982</v>
+        <v>3700</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
         <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>446</v>
+        <v>324</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44402</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="B7">
-        <v>4855</v>
+        <v>3721</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>440</v>
+        <v>324</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44402</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="B8">
-        <v>4781</v>
+        <v>3808</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>442</v>
+        <v>324</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44405</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="B9">
-        <v>4781</v>
+        <v>3738</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>446</v>
+        <v>324</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44408</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="B10">
-        <v>4781</v>
+        <v>3737</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>442</v>
+        <v>324</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44408</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="B11">
-        <v>4220</v>
+        <v>3835</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
         <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>446</v>
+        <v>324</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44408</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="B12">
-        <v>644</v>
+        <v>3748</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
         <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>436</v>
+        <v>324</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44410</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B13">
-        <v>4476</v>
+        <v>3748</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
         <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>436</v>
+        <v>324</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44410</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="B14">
-        <v>4694</v>
+        <v>3822</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>437</v>
+        <v>324</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44401</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="B15">
-        <v>4181</v>
+        <v>3819</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>447</v>
+        <v>324</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44401</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="B16">
-        <v>4875</v>
+        <v>3819</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>440</v>
+        <v>324</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44401</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="B17">
-        <v>4875</v>
+        <v>3703</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>438</v>
+        <v>324</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44403</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="B18">
-        <v>4875</v>
+        <v>3703</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>438</v>
+        <v>324</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44403</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="B19">
-        <v>4826</v>
+        <v>3706</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>442</v>
+        <v>324</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44403</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="B20">
-        <v>4573</v>
+        <v>3706</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>437</v>
+        <v>324</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44403</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B21">
-        <v>561</v>
+        <v>3787</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="F21" s="2">
-        <v>44412</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <v>560</v>
+        <v>4154</v>
       </c>
       <c r="C22">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F22" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>533</v>
+        <v>4989</v>
       </c>
       <c r="C23">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="2">
-        <v>44411</v>
+      <c r="F23" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>532</v>
+        <v>4855</v>
       </c>
       <c r="C24">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="2">
-        <v>44411</v>
+      <c r="F24" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>536</v>
+        <v>4220</v>
       </c>
       <c r="C25">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2">
-        <v>44411</v>
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>534</v>
+        <v>644</v>
       </c>
       <c r="C26">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2">
-        <v>44411</v>
+        <v>32</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>4476</v>
+      </c>
+      <c r="C27">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>537</v>
-      </c>
-      <c r="C27">
-        <v>101</v>
-      </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2">
-        <v>44411</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>535</v>
+        <v>4181</v>
       </c>
       <c r="C28">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2">
-        <v>44411</v>
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>567</v>
+        <v>4875</v>
       </c>
       <c r="C29">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="2">
-        <v>44411</v>
+      <c r="F29" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>567</v>
+        <v>4826</v>
       </c>
       <c r="C30">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2">
-        <v>44411</v>
+        <v>32</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>670</v>
+        <v>4573</v>
       </c>
       <c r="C31">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2">
-        <v>44411</v>
+        <v>32</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>714</v>
+        <v>533</v>
       </c>
       <c r="C32">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>705</v>
+        <v>532</v>
       </c>
       <c r="C33">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>698</v>
+        <v>567</v>
       </c>
       <c r="C34">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2">
-        <v>44414</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>696</v>
+        <v>627</v>
       </c>
       <c r="C35">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2">
-        <v>44412</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C38">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -3314,18 +3315,18 @@
         <v>32</v>
       </c>
       <c r="F38" s="2">
-        <v>44415</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>626</v>
+        <v>5774</v>
       </c>
       <c r="C39">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -3334,58 +3335,58 @@
         <v>32</v>
       </c>
       <c r="F39" s="2">
-        <v>44415</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B40">
-        <v>627</v>
+        <v>5773</v>
       </c>
       <c r="C40">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2">
-        <v>44414</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>626</v>
+        <v>5810</v>
       </c>
       <c r="C41">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2">
-        <v>44414</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B42">
-        <v>622</v>
+        <v>5596</v>
       </c>
       <c r="C42">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3394,38 +3395,38 @@
         <v>32</v>
       </c>
       <c r="F42" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B43">
-        <v>622</v>
+        <v>5692</v>
       </c>
       <c r="C43">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B44">
-        <v>622</v>
+        <v>5691</v>
       </c>
       <c r="C44">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3434,404 +3435,404 @@
         <v>32</v>
       </c>
       <c r="F44" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B45">
-        <v>578</v>
+        <v>5732</v>
       </c>
       <c r="C45">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2">
-        <v>44411</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B46">
-        <v>622</v>
+        <v>306</v>
       </c>
       <c r="C46">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F46" s="2">
-        <v>44411</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B47">
-        <v>634</v>
+        <v>138</v>
       </c>
       <c r="C47">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2">
-        <v>44411</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B48">
-        <v>4118</v>
+        <v>76</v>
       </c>
       <c r="C48">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="F48" s="2">
-        <v>44415</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B49">
-        <v>4111</v>
+        <v>343</v>
       </c>
       <c r="C49">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="F49" s="2">
-        <v>44415</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B50">
-        <v>4100</v>
+        <v>192</v>
       </c>
       <c r="C50">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
         <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2">
-        <v>44415</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B51">
-        <v>4154</v>
+        <v>182</v>
       </c>
       <c r="C51">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="F51" s="2">
-        <v>44414</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B52">
-        <v>4139</v>
+        <v>237</v>
       </c>
       <c r="C52">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2">
-        <v>44414</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B53">
-        <v>4171</v>
+        <v>162</v>
       </c>
       <c r="C53">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="F53" s="2">
-        <v>44414</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B54">
-        <v>4161</v>
+        <v>237</v>
       </c>
       <c r="C54">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2">
-        <v>44414</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B55">
-        <v>5774</v>
+        <v>289</v>
       </c>
       <c r="C55">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B56">
-        <v>5773</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>32</v>
       </c>
       <c r="F56" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B57">
-        <v>5774</v>
+        <v>199</v>
       </c>
       <c r="C57">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2">
-        <v>44400</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>5773</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F58" s="2">
-        <v>44400</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B59">
-        <v>5776</v>
+        <v>2379</v>
       </c>
       <c r="C59">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F59" s="2">
-        <v>44400</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B60">
-        <v>5775</v>
+        <v>5085</v>
       </c>
       <c r="C60">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F60" s="2">
-        <v>44400</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B61">
-        <v>5737</v>
+        <v>5085</v>
       </c>
       <c r="C61">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F61" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B62">
-        <v>5738</v>
+        <v>5116</v>
       </c>
       <c r="C62">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F62" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B63">
-        <v>5740</v>
+        <v>5034</v>
       </c>
       <c r="C63">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F63" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B64">
-        <v>5739</v>
+        <v>5070</v>
       </c>
       <c r="C64">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F64" s="2">
         <v>44405</v>
@@ -3839,259 +3840,259 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B65">
-        <v>5810</v>
+        <v>5106</v>
       </c>
       <c r="C65">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="2">
-        <v>44407</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="B66">
-        <v>5688</v>
+        <v>5085</v>
       </c>
       <c r="C66">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F66" s="2">
-        <v>44405</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B67">
-        <v>5680</v>
+        <v>5118</v>
       </c>
       <c r="C67">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2">
-        <v>44405</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B68">
-        <v>5687</v>
+        <v>5085</v>
       </c>
       <c r="C68">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2">
-        <v>44405</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B69">
-        <v>5679</v>
+        <v>5097</v>
       </c>
       <c r="C69">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B70">
-        <v>5596</v>
+        <v>5127</v>
       </c>
       <c r="C70">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
         <v>32</v>
       </c>
       <c r="F70" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B71">
-        <v>5696</v>
+        <v>5122</v>
       </c>
       <c r="C71">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B72">
-        <v>5692</v>
+        <v>5052</v>
       </c>
       <c r="C72">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
         <v>32</v>
       </c>
       <c r="F72" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="B73">
-        <v>5691</v>
+        <v>5041</v>
       </c>
       <c r="C73">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
         <v>32</v>
       </c>
       <c r="F73" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B74">
-        <v>5692</v>
+        <v>5039</v>
       </c>
       <c r="C74">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F74" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B75">
-        <v>5691</v>
+        <v>5020</v>
       </c>
       <c r="C75">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2">
-        <v>44401</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="B76">
-        <v>5620</v>
+        <v>5043</v>
       </c>
       <c r="C76">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F76" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B77">
-        <v>5625</v>
+        <v>5017</v>
       </c>
       <c r="C77">
-        <v>204</v>
+        <v>2622</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F77" s="2">
         <v>44405</v>
@@ -4099,73 +4100,73 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="B78">
-        <v>5626</v>
+        <v>5038</v>
       </c>
       <c r="C78">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2">
-        <v>44405</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="B79">
-        <v>5619</v>
+        <v>5041</v>
       </c>
       <c r="C79">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F79" s="2">
-        <v>44405</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B80">
-        <v>5732</v>
+        <v>5038</v>
       </c>
       <c r="C80">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
         <v>32</v>
       </c>
       <c r="F80" s="2">
-        <v>44407</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B81">
-        <v>306</v>
+        <v>5041</v>
       </c>
       <c r="C81">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
         <v>134</v>
@@ -4174,18 +4175,18 @@
         <v>32</v>
       </c>
       <c r="F81" s="2">
-        <v>44401</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B82">
-        <v>138</v>
+        <v>5052</v>
       </c>
       <c r="C82">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -4194,38 +4195,38 @@
         <v>32</v>
       </c>
       <c r="F82" s="2">
-        <v>44402</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="B83">
-        <v>139</v>
+        <v>5155</v>
       </c>
       <c r="C83">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F83" s="2">
-        <v>44402</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B84">
-        <v>76</v>
+        <v>5134</v>
       </c>
       <c r="C84">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
         <v>170</v>
@@ -4234,98 +4235,98 @@
         <v>32</v>
       </c>
       <c r="F84" s="2">
-        <v>44410</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B85">
-        <v>343</v>
+        <v>5157</v>
       </c>
       <c r="C85">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
       </c>
       <c r="F85" s="2">
-        <v>44403</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B86">
-        <v>353</v>
+        <v>5043</v>
       </c>
       <c r="C86">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F86" s="2">
-        <v>44403</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="B87">
-        <v>329</v>
+        <v>5041</v>
       </c>
       <c r="C87">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
       </c>
       <c r="E87" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F87" s="2">
-        <v>44403</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="B88">
-        <v>192</v>
+        <v>789</v>
       </c>
       <c r="C88">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
         <v>32</v>
       </c>
       <c r="F88" s="2">
-        <v>44406</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="B89">
-        <v>182</v>
+        <v>1881</v>
       </c>
       <c r="C89">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -4334,464 +4335,464 @@
         <v>32</v>
       </c>
       <c r="F89" s="2">
-        <v>44406</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="B90">
-        <v>302</v>
+        <v>1866</v>
       </c>
       <c r="C90">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F90" s="2">
-        <v>44404</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B91">
-        <v>286</v>
+        <v>1491</v>
       </c>
       <c r="C91">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E91" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>44404</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="B92">
-        <v>139</v>
+        <v>730</v>
       </c>
       <c r="C92">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F92" s="2">
-        <v>44404</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="B93">
-        <v>162</v>
+        <v>784</v>
       </c>
       <c r="C93">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
         <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F93" s="2">
-        <v>44404</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>789</v>
       </c>
       <c r="C94">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F94" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1935</v>
       </c>
       <c r="C95">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
       </c>
       <c r="E95" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F95" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>1888</v>
       </c>
       <c r="C96">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F96" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>1895</v>
       </c>
       <c r="C97">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
       </c>
       <c r="E97" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F97" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="B98">
-        <v>237</v>
+        <v>1867</v>
       </c>
       <c r="C98">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F98" s="2">
-        <v>44402</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="B99">
-        <v>254</v>
+        <v>1881</v>
       </c>
       <c r="C99">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E99" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F99" s="2">
-        <v>44402</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B100">
-        <v>162</v>
+        <v>1883</v>
       </c>
       <c r="C100">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F100" s="2">
-        <v>44401</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B101">
-        <v>56</v>
+        <v>1866</v>
       </c>
       <c r="C101">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
       </c>
       <c r="E101" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F101" s="2">
-        <v>44401</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B102">
-        <v>237</v>
+        <v>1864</v>
       </c>
       <c r="C102">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F102" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B103">
-        <v>289</v>
+        <v>1918</v>
       </c>
       <c r="C103">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F103" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="B104">
-        <v>38</v>
+        <v>1491</v>
       </c>
       <c r="C104">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F104" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="B105">
-        <v>69</v>
+        <v>730</v>
       </c>
       <c r="C105">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E105" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F105" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="B106">
-        <v>199</v>
+        <v>1919</v>
       </c>
       <c r="C106">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F106" s="2">
-        <v>44403</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="B107">
-        <v>209</v>
+        <v>784</v>
       </c>
       <c r="C107">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="D107" t="s">
         <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F107" s="2">
-        <v>44403</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>1899</v>
       </c>
       <c r="C108">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F108" s="2">
-        <v>44406</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="B109">
-        <v>7</v>
+        <v>1915</v>
       </c>
       <c r="C109">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
         <v>170</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F109" s="2">
-        <v>44406</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>2358</v>
+        <v>561</v>
       </c>
       <c r="C110">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="F110" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>2379</v>
+        <v>560</v>
       </c>
       <c r="C111">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F111" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B112">
-        <v>2379</v>
+        <v>714</v>
       </c>
       <c r="C112">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="F112" s="2">
         <v>44412</v>
@@ -4799,253 +4800,253 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="B113">
-        <v>5085</v>
+        <v>698</v>
       </c>
       <c r="C113">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F113" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B114">
-        <v>5085</v>
+        <v>696</v>
       </c>
       <c r="C114">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F114" s="2">
-        <v>44406</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B115">
-        <v>5085</v>
+        <v>529</v>
       </c>
       <c r="C115">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F115" s="2">
-        <v>44407</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B116">
-        <v>5070</v>
+        <v>528</v>
       </c>
       <c r="C116">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F116" s="2">
-        <v>44407</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="B117">
-        <v>5085</v>
+        <v>627</v>
       </c>
       <c r="C117">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F117" s="2">
-        <v>44406</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="B118">
-        <v>5116</v>
+        <v>626</v>
       </c>
       <c r="C118">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F118" s="2">
-        <v>44407</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B119">
-        <v>5034</v>
+        <v>5774</v>
       </c>
       <c r="C119">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2">
-        <v>44406</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B120">
-        <v>5070</v>
+        <v>5773</v>
       </c>
       <c r="C120">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2">
-        <v>44405</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B121">
-        <v>5106</v>
+        <v>5776</v>
       </c>
       <c r="C121">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="D121" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2">
-        <v>44409</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B122">
-        <v>5085</v>
+        <v>5775</v>
       </c>
       <c r="C122">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2">
-        <v>44409</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B123">
-        <v>5118</v>
+        <v>5692</v>
       </c>
       <c r="C123">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2">
-        <v>44409</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B124">
-        <v>5085</v>
+        <v>5691</v>
       </c>
       <c r="C124">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F124" s="2">
-        <v>44409</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B125">
-        <v>5128</v>
+        <v>5085</v>
       </c>
       <c r="C125">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -5054,52 +5055,52 @@
         <v>72</v>
       </c>
       <c r="F125" s="2">
-        <v>44404</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>5097</v>
+        <v>5128</v>
       </c>
       <c r="C126">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D126" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F126" s="2">
-        <v>44408</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127">
-        <v>5127</v>
+        <v>5097</v>
       </c>
       <c r="C127">
         <v>267</v>
       </c>
       <c r="D127" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2">
-        <v>44408</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>5122</v>
@@ -5108,24 +5109,24 @@
         <v>267</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2">
-        <v>44408</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B129">
-        <v>5097</v>
+        <v>5051</v>
       </c>
       <c r="C129">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D129" t="s">
         <v>134</v>
@@ -5134,18 +5135,18 @@
         <v>72</v>
       </c>
       <c r="F129" s="2">
-        <v>44406</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B130">
-        <v>5122</v>
+        <v>5052</v>
       </c>
       <c r="C130">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
@@ -5154,15 +5155,15 @@
         <v>72</v>
       </c>
       <c r="F130" s="2">
-        <v>44406</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B131">
-        <v>5052</v>
+        <v>5044</v>
       </c>
       <c r="C131">
         <v>246</v>
@@ -5171,21 +5172,21 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2">
-        <v>44404</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B132">
-        <v>5051</v>
+        <v>5020</v>
       </c>
       <c r="C132">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D132" t="s">
         <v>134</v>
@@ -5199,13 +5200,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B133">
-        <v>5052</v>
+        <v>5041</v>
       </c>
       <c r="C133">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -5214,18 +5215,18 @@
         <v>72</v>
       </c>
       <c r="F133" s="2">
-        <v>44402</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B134">
-        <v>5044</v>
+        <v>5016</v>
       </c>
       <c r="C134">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -5234,38 +5235,38 @@
         <v>72</v>
       </c>
       <c r="F134" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B135">
-        <v>5044</v>
+        <v>5020</v>
       </c>
       <c r="C135">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="F135" s="2">
-        <v>44403</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B136">
-        <v>5020</v>
+        <v>5041</v>
       </c>
       <c r="C136">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5274,487 +5275,487 @@
         <v>72</v>
       </c>
       <c r="F136" s="2">
-        <v>44402</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="B137">
-        <v>5041</v>
+        <v>4118</v>
       </c>
       <c r="C137">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F137" s="2">
-        <v>44407</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B138">
-        <v>5039</v>
+        <v>4139</v>
       </c>
       <c r="C138">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="D138" t="s">
         <v>134</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F138" s="2">
-        <v>44402</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>5041</v>
+        <v>4781</v>
       </c>
       <c r="C139">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
-      </c>
-      <c r="F139" s="2">
-        <v>44405</v>
+        <v>443</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B140">
-        <v>5016</v>
+        <v>4111</v>
       </c>
       <c r="C140">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="F140" s="2">
-        <v>44403</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B141">
-        <v>5020</v>
+        <v>4171</v>
       </c>
       <c r="C141">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="F141" s="2">
-        <v>44407</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B142">
-        <v>5020</v>
+        <v>139</v>
       </c>
       <c r="C142">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2">
-        <v>44405</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B143">
-        <v>5043</v>
+        <v>353</v>
       </c>
       <c r="C143">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2">
-        <v>44406</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="B144">
-        <v>5017</v>
+        <v>329</v>
       </c>
       <c r="C144">
-        <v>2622</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F144" s="2">
-        <v>44405</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="B145">
-        <v>5038</v>
+        <v>302</v>
       </c>
       <c r="C145">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="D145" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F145" s="2">
-        <v>44402</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B146">
-        <v>5041</v>
+        <v>286</v>
       </c>
       <c r="C146">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="D146" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F146" s="2">
-        <v>44402</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B147">
-        <v>5038</v>
+        <v>139</v>
       </c>
       <c r="C147">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F147" s="2">
-        <v>44409</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B148">
-        <v>5041</v>
+        <v>162</v>
       </c>
       <c r="C148">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D148" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F148" s="2">
-        <v>44409</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B149">
-        <v>5052</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F149" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B150">
-        <v>5155</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F150" s="2">
-        <v>44406</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B151">
-        <v>5134</v>
+        <v>3</v>
       </c>
       <c r="C151">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F151" s="2">
-        <v>44406</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B152">
-        <v>5157</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F152" s="2">
-        <v>44406</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="B153">
-        <v>5043</v>
+        <v>254</v>
       </c>
       <c r="C153">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="D153" t="s">
         <v>170</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F153" s="2">
-        <v>44406</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="B154">
-        <v>5041</v>
+        <v>56</v>
       </c>
       <c r="C154">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="D154" t="s">
         <v>134</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F154" s="2">
-        <v>44409</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B155">
-        <v>5041</v>
+        <v>69</v>
       </c>
       <c r="C155">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="D155" t="s">
         <v>134</v>
       </c>
       <c r="E155" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="F155" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B156">
-        <v>5041</v>
+        <v>209</v>
       </c>
       <c r="C156">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D156" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="F156" s="2">
-        <v>44408</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B157">
-        <v>1881</v>
+        <v>7</v>
       </c>
       <c r="C157">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="D157" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E157" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="F157" s="2">
-        <v>44412</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B158">
-        <v>789</v>
+        <v>2358</v>
       </c>
       <c r="C158">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="D158" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F158" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B159">
-        <v>789</v>
+        <v>2379</v>
       </c>
       <c r="C159">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="D159" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="F159" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B160">
-        <v>1935</v>
+        <v>1881</v>
       </c>
       <c r="C160">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D160" t="s">
         <v>134</v>
       </c>
       <c r="E160" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F160" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,10 +5780,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B162">
-        <v>1881</v>
+        <v>1896</v>
       </c>
       <c r="C162">
         <v>131</v>
@@ -5791,7 +5792,7 @@
         <v>134</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="F162" s="2">
         <v>44411</v>
@@ -5799,10 +5800,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B163">
-        <v>1866</v>
+        <v>1895</v>
       </c>
       <c r="C163">
         <v>131</v>
@@ -5811,7 +5812,7 @@
         <v>134</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="F163" s="2">
         <v>44411</v>
@@ -5819,10 +5820,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B164">
-        <v>1888</v>
+        <v>1867</v>
       </c>
       <c r="C164">
         <v>131</v>
@@ -5831,7 +5832,7 @@
         <v>134</v>
       </c>
       <c r="E164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F164" s="2">
         <v>44411</v>
@@ -5839,10 +5840,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B165">
-        <v>1895</v>
+        <v>1866</v>
       </c>
       <c r="C165">
         <v>131</v>
@@ -5851,7 +5852,7 @@
         <v>134</v>
       </c>
       <c r="E165" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F165" s="2">
         <v>44411</v>
@@ -5859,10 +5860,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B166">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C166">
         <v>131</v>
@@ -5871,7 +5872,7 @@
         <v>134</v>
       </c>
       <c r="E166" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F166" s="2">
         <v>44411</v>
@@ -5879,299 +5880,299 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B167">
-        <v>1881</v>
+        <v>1916</v>
       </c>
       <c r="C167">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D167" t="s">
         <v>134</v>
       </c>
       <c r="E167" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F167" s="2">
-        <v>44411</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B168">
-        <v>1883</v>
+        <v>1491</v>
       </c>
       <c r="C168">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D168" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F168" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B169">
-        <v>1866</v>
+        <v>730</v>
       </c>
       <c r="C169">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D169" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F169" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
+        <v>187</v>
+      </c>
+      <c r="B170">
+        <v>784</v>
+      </c>
+      <c r="C170">
+        <v>130</v>
+      </c>
+      <c r="D170" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
-        <v>1864</v>
-      </c>
-      <c r="C170">
-        <v>131</v>
-      </c>
-      <c r="D170" t="s">
-        <v>134</v>
-      </c>
       <c r="E170" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F170" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="B171">
-        <v>1896</v>
+        <v>705</v>
       </c>
       <c r="C171">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D171" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="F171" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="B172">
-        <v>1895</v>
+        <v>3590</v>
       </c>
       <c r="C172">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
       </c>
       <c r="E172" t="s">
-        <v>235</v>
-      </c>
-      <c r="F172" s="2">
-        <v>44411</v>
+        <v>449</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="B173">
-        <v>1867</v>
+        <v>3561</v>
       </c>
       <c r="C173">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
         <v>134</v>
       </c>
       <c r="E173" t="s">
-        <v>235</v>
-      </c>
-      <c r="F173" s="2">
-        <v>44411</v>
+        <v>449</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="B174">
-        <v>1866</v>
+        <v>3616</v>
       </c>
       <c r="C174">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
       </c>
       <c r="E174" t="s">
-        <v>235</v>
-      </c>
-      <c r="F174" s="2">
-        <v>44411</v>
+        <v>449</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="B175">
-        <v>1864</v>
+        <v>3590</v>
       </c>
       <c r="C175">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
       </c>
       <c r="E175" t="s">
-        <v>235</v>
-      </c>
-      <c r="F175" s="2">
-        <v>44411</v>
+        <v>449</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="B176">
-        <v>1916</v>
+        <v>5696</v>
       </c>
       <c r="C176">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E176" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="F176" s="2">
-        <v>44414</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="B177">
-        <v>1491</v>
+        <v>4875</v>
       </c>
       <c r="C177">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="D177" t="s">
-        <v>170</v>
+        <v>439</v>
       </c>
       <c r="E177" t="s">
-        <v>32</v>
-      </c>
-      <c r="F177" s="2">
-        <v>44411</v>
+        <v>435</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="B178">
-        <v>730</v>
+        <v>4982</v>
       </c>
       <c r="C178">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
-      </c>
-      <c r="F178" s="2">
-        <v>44411</v>
+        <v>8</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B179">
-        <v>784</v>
+        <v>4694</v>
       </c>
       <c r="C179">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
-      </c>
-      <c r="F179" s="2">
-        <v>44411</v>
+        <v>8</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B180">
-        <v>1918</v>
+        <v>4875</v>
       </c>
       <c r="C180">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>439</v>
       </c>
       <c r="E180" t="s">
-        <v>239</v>
-      </c>
-      <c r="F180" s="2">
-        <v>44411</v>
+        <v>8</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="B181">
-        <v>1491</v>
+        <v>536</v>
       </c>
       <c r="C181">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D181" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="F181" s="2">
         <v>44411</v>
@@ -6179,19 +6180,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="B182">
-        <v>730</v>
+        <v>534</v>
       </c>
       <c r="C182">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D182" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="F182" s="2">
         <v>44411</v>
@@ -6199,19 +6200,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="B183">
-        <v>1919</v>
+        <v>537</v>
       </c>
       <c r="C183">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D183" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="F183" s="2">
         <v>44411</v>
@@ -6219,19 +6220,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="B184">
-        <v>784</v>
+        <v>535</v>
       </c>
       <c r="C184">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D184" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="F184" s="2">
         <v>44411</v>
@@ -6239,513 +6240,513 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="B185">
-        <v>1491</v>
+        <v>567</v>
       </c>
       <c r="C185">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D185" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="F185" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="B186">
-        <v>730</v>
+        <v>670</v>
       </c>
       <c r="C186">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D186" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E186" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="F186" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="B187">
-        <v>784</v>
+        <v>622</v>
       </c>
       <c r="C187">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D187" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E187" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="F187" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="B188">
-        <v>1899</v>
+        <v>578</v>
       </c>
       <c r="C188">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D188" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E188" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="F188" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="B189">
-        <v>1915</v>
+        <v>622</v>
       </c>
       <c r="C189">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D189" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E189" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="F189" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="B190">
-        <v>3766</v>
+        <v>634</v>
       </c>
       <c r="C190">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="F190" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="B191">
-        <v>3766</v>
+        <v>5737</v>
       </c>
       <c r="C191">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="D191" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="E191" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="F191" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="B192">
-        <v>3766</v>
+        <v>5738</v>
       </c>
       <c r="C192">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="D192" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E192" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="F192" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="B193">
-        <v>3766</v>
+        <v>5740</v>
       </c>
       <c r="C193">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="D193" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E193" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="F193" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="B194">
-        <v>3766</v>
+        <v>5739</v>
       </c>
       <c r="C194">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="D194" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E194" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="F194" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="B195">
-        <v>3766</v>
+        <v>5688</v>
       </c>
       <c r="C195">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="D195" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E195" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F195" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="B196">
-        <v>3766</v>
+        <v>5680</v>
       </c>
       <c r="C196">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E196" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F196" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="B197">
-        <v>3766</v>
+        <v>5687</v>
       </c>
       <c r="C197">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="D197" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="E197" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F197" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="B198">
-        <v>3864</v>
+        <v>5679</v>
       </c>
       <c r="C198">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="D198" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E198" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="F198" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="B199">
-        <v>3856</v>
+        <v>5620</v>
       </c>
       <c r="C199">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D199" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E199" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="F199" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="B200">
-        <v>3864</v>
+        <v>5625</v>
       </c>
       <c r="C200">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D200" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E200" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F200" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="B201">
-        <v>3864</v>
+        <v>5626</v>
       </c>
       <c r="C201">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E201" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F201" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="B202">
-        <v>3856</v>
+        <v>5619</v>
       </c>
       <c r="C202">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D202" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E202" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F202" s="2">
-        <v>44411</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="B203">
-        <v>3700</v>
+        <v>5085</v>
       </c>
       <c r="C203">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="D203" t="s">
         <v>134</v>
       </c>
       <c r="E203" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="F203" s="2">
-        <v>44402</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="B204">
-        <v>3700</v>
+        <v>5070</v>
       </c>
       <c r="C204">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="D204" t="s">
         <v>134</v>
       </c>
       <c r="E204" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F204" s="2">
-        <v>44402</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="B205">
-        <v>3721</v>
+        <v>5044</v>
       </c>
       <c r="C205">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
       </c>
       <c r="E205" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="F205" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B206">
-        <v>3725</v>
+        <v>5041</v>
       </c>
       <c r="C206">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
       </c>
       <c r="E206" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="F206" s="2">
-        <v>44402</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B207">
-        <v>3721</v>
+        <v>3766</v>
       </c>
       <c r="C207">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D207" t="s">
         <v>134</v>
       </c>
       <c r="E207" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F207" s="2">
-        <v>44402</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B208">
-        <v>3808</v>
+        <v>3766</v>
       </c>
       <c r="C208">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D208" t="s">
         <v>134</v>
       </c>
       <c r="E208" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F208" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B209">
-        <v>3808</v>
+        <v>3766</v>
       </c>
       <c r="C209">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D209" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E209" t="s">
         <v>320</v>
       </c>
       <c r="F209" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B210">
-        <v>3808</v>
+        <v>3856</v>
       </c>
       <c r="C210">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D210" t="s">
         <v>134</v>
@@ -6754,12 +6755,12 @@
         <v>320</v>
       </c>
       <c r="F210" s="2">
-        <v>44405</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211">
         <v>3808</v>
@@ -6771,7 +6772,7 @@
         <v>134</v>
       </c>
       <c r="E211" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F211" s="2">
         <v>44405</v>
@@ -6779,7 +6780,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212">
         <v>3808</v>
@@ -6788,10 +6789,10 @@
         <v>315</v>
       </c>
       <c r="D212" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E212" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F212" s="2">
         <v>44405</v>
@@ -6799,10 +6800,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B213">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="C213">
         <v>317</v>
@@ -6811,7 +6812,7 @@
         <v>134</v>
       </c>
       <c r="E213" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F213" s="2">
         <v>44408</v>
@@ -6819,33 +6820,33 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B214">
-        <v>3737</v>
+        <v>3748</v>
       </c>
       <c r="C214">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D214" t="s">
         <v>134</v>
       </c>
       <c r="E214" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F214" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B215">
-        <v>3737</v>
+        <v>3819</v>
       </c>
       <c r="C215">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D215" t="s">
         <v>134</v>
@@ -6854,178 +6855,178 @@
         <v>320</v>
       </c>
       <c r="F215" s="2">
-        <v>44408</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B216">
-        <v>3737</v>
+        <v>3819</v>
       </c>
       <c r="C216">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D216" t="s">
         <v>134</v>
       </c>
       <c r="E216" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F216" s="2">
-        <v>44408</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B217">
-        <v>3737</v>
+        <v>3701</v>
       </c>
       <c r="C217">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D217" t="s">
         <v>134</v>
       </c>
       <c r="E217" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F217" s="2">
-        <v>44408</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B218">
-        <v>3835</v>
+        <v>3787</v>
       </c>
       <c r="C218">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D218" t="s">
         <v>134</v>
       </c>
       <c r="E218" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F218" s="2">
-        <v>44408</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="B219">
-        <v>3835</v>
+        <v>4100</v>
       </c>
       <c r="C219">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="D219" t="s">
         <v>134</v>
       </c>
       <c r="E219" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="F219" s="2">
-        <v>44408</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B220">
-        <v>3748</v>
+        <v>4161</v>
       </c>
       <c r="C220">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
       </c>
       <c r="E220" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="F220" s="2">
-        <v>44410</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B221">
-        <v>3748</v>
+        <v>3766</v>
       </c>
       <c r="C221">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
       </c>
       <c r="E221" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F221" s="2">
-        <v>44410</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B222">
-        <v>3748</v>
+        <v>3766</v>
       </c>
       <c r="C222">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D222" t="s">
         <v>134</v>
       </c>
       <c r="E222" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F222" s="2">
-        <v>44410</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B223">
-        <v>3748</v>
+        <v>3766</v>
       </c>
       <c r="C223">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D223" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E223" t="s">
         <v>329</v>
       </c>
       <c r="F223" s="2">
-        <v>44410</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B224">
-        <v>3748</v>
+        <v>3864</v>
       </c>
       <c r="C224">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D224" t="s">
         <v>134</v>
@@ -7034,118 +7035,118 @@
         <v>329</v>
       </c>
       <c r="F224" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B225">
-        <v>3822</v>
+        <v>3864</v>
       </c>
       <c r="C225">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D225" t="s">
         <v>134</v>
       </c>
       <c r="E225" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F225" s="2">
-        <v>44401</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B226">
-        <v>3819</v>
+        <v>3856</v>
       </c>
       <c r="C226">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D226" t="s">
         <v>134</v>
       </c>
       <c r="E226" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F226" s="2">
-        <v>44401</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B227">
-        <v>3819</v>
+        <v>3700</v>
       </c>
       <c r="C227">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D227" t="s">
         <v>134</v>
       </c>
       <c r="E227" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F227" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B228">
-        <v>3819</v>
+        <v>3725</v>
       </c>
       <c r="C228">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D228" t="s">
         <v>134</v>
       </c>
       <c r="E228" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F228" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B229">
-        <v>3819</v>
+        <v>3721</v>
       </c>
       <c r="C229">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D229" t="s">
         <v>134</v>
       </c>
       <c r="E229" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F229" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B230">
-        <v>3819</v>
+        <v>3808</v>
       </c>
       <c r="C230">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D230" t="s">
         <v>134</v>
@@ -7154,38 +7155,38 @@
         <v>329</v>
       </c>
       <c r="F230" s="2">
-        <v>44401</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B231">
-        <v>3819</v>
+        <v>3808</v>
       </c>
       <c r="C231">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D231" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E231" t="s">
         <v>329</v>
       </c>
       <c r="F231" s="2">
-        <v>44401</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B232">
-        <v>3819</v>
+        <v>3737</v>
       </c>
       <c r="C232">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D232" t="s">
         <v>134</v>
@@ -7194,118 +7195,118 @@
         <v>329</v>
       </c>
       <c r="F232" s="2">
-        <v>44401</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B233">
-        <v>3703</v>
+        <v>3737</v>
       </c>
       <c r="C233">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D233" t="s">
         <v>134</v>
       </c>
       <c r="E233" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F233" s="2">
-        <v>44403</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B234">
-        <v>3703</v>
+        <v>3835</v>
       </c>
       <c r="C234">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
       </c>
       <c r="E234" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F234" s="2">
-        <v>44403</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B235">
-        <v>3706</v>
+        <v>3748</v>
       </c>
       <c r="C235">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
       </c>
       <c r="E235" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F235" s="2">
-        <v>44403</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B236">
-        <v>3706</v>
+        <v>3748</v>
       </c>
       <c r="C236">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
       </c>
       <c r="E236" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F236" s="2">
-        <v>44403</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B237">
-        <v>3701</v>
+        <v>3819</v>
       </c>
       <c r="C237">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
       </c>
       <c r="E237" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F237" s="2">
-        <v>44403</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B238">
-        <v>3703</v>
+        <v>3819</v>
       </c>
       <c r="C238">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -7314,18 +7315,18 @@
         <v>329</v>
       </c>
       <c r="F238" s="2">
-        <v>44403</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B239">
-        <v>3703</v>
+        <v>3819</v>
       </c>
       <c r="C239">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -7334,15 +7335,15 @@
         <v>329</v>
       </c>
       <c r="F239" s="2">
-        <v>44403</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240">
-        <v>3706</v>
+        <v>3703</v>
       </c>
       <c r="C240">
         <v>310</v>
@@ -7359,10 +7360,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241">
-        <v>3706</v>
+        <v>3703</v>
       </c>
       <c r="C241">
         <v>310</v>
@@ -7379,42 +7380,42 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242">
-        <v>3787</v>
+        <v>3706</v>
       </c>
       <c r="C242">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
       </c>
       <c r="E242" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F242" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243">
-        <v>3787</v>
+        <v>3706</v>
       </c>
       <c r="C243">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D243" t="s">
         <v>134</v>
       </c>
       <c r="E243" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F243" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7438,7 +7439,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G244">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F244">
     <sortCondition ref="E1:E244"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dataset/sql_datasets/record.xlsx
+++ b/dataset/sql_datasets/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E736D-569D-4A55-9AE4-185FBB23E906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06F0FF-AA96-479A-8C35-66A2779AE809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0E4A0B2-835F-4CB5-9286-B062CDE8A4C7}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" xr2:uid="{B0E4A0B2-835F-4CB5-9286-B062CDE8A4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="15" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Shooting" sheetId="9" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Records!$A$1:$F$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Records!$A$1:$E$245</definedName>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">'Canoe sprint_edit_'!$A$1:$G$22</definedName>
     <definedName name="ExternalData_11" localSheetId="3" hidden="1">'Track cycling_edit_'!$A$1:$G$18</definedName>
     <definedName name="ExternalData_12" localSheetId="2" hidden="1">'Women_edit_ (2)'!$A$1:$H$21</definedName>
@@ -2542,4905 +2542,4172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2230AD7-0197-4631-BAA9-1043F7828522}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>4781</v>
+      </c>
+      <c r="B1">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4781</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3766</v>
+      </c>
+      <c r="B3">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3766</v>
+      </c>
+      <c r="B4">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3864</v>
+      </c>
+      <c r="B5">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3700</v>
+      </c>
+      <c r="B6">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3721</v>
+      </c>
+      <c r="B7">
+        <v>314</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3808</v>
+      </c>
+      <c r="B8">
+        <v>315</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3738</v>
+      </c>
+      <c r="B9">
+        <v>317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3737</v>
+      </c>
+      <c r="B10">
+        <v>317</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3835</v>
+      </c>
+      <c r="B11">
+        <v>318</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3748</v>
+      </c>
+      <c r="B12">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3748</v>
+      </c>
+      <c r="B13">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3822</v>
+      </c>
+      <c r="B14">
+        <v>309</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3819</v>
+      </c>
+      <c r="B15">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3819</v>
+      </c>
+      <c r="B16">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3703</v>
+      </c>
+      <c r="B17">
+        <v>310</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3703</v>
+      </c>
+      <c r="B18">
+        <v>310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3706</v>
+      </c>
+      <c r="B19">
+        <v>310</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3706</v>
+      </c>
+      <c r="B20">
+        <v>310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3787</v>
+      </c>
+      <c r="B21">
+        <v>311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4154</v>
+      </c>
+      <c r="B22">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4989</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4855</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4220</v>
+      </c>
+      <c r="B25">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>644</v>
+      </c>
+      <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4476</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4181</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4875</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4826</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4573</v>
+      </c>
+      <c r="B31">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>533</v>
+      </c>
+      <c r="B32">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>532</v>
+      </c>
+      <c r="B33">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>567</v>
+      </c>
+      <c r="B34">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>627</v>
+      </c>
+      <c r="B35">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>626</v>
+      </c>
+      <c r="B36">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>622</v>
+      </c>
+      <c r="B37">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>622</v>
+      </c>
+      <c r="B38">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5774</v>
+      </c>
+      <c r="B39">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5773</v>
+      </c>
+      <c r="B40">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5810</v>
+      </c>
+      <c r="B41">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5596</v>
+      </c>
+      <c r="B42">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5692</v>
+      </c>
+      <c r="B43">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5691</v>
+      </c>
+      <c r="B44">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5732</v>
+      </c>
+      <c r="B45">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>306</v>
+      </c>
+      <c r="B46">
+        <v>223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>138</v>
+      </c>
+      <c r="B47">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>343</v>
+      </c>
+      <c r="B49">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>192</v>
+      </c>
+      <c r="B50">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>182</v>
+      </c>
+      <c r="B51">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>237</v>
+      </c>
+      <c r="B52">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>162</v>
+      </c>
+      <c r="B53">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>237</v>
+      </c>
+      <c r="B54">
+        <v>229</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>289</v>
+      </c>
+      <c r="B55">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>199</v>
+      </c>
+      <c r="B57">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2379</v>
+      </c>
+      <c r="B59">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5085</v>
+      </c>
+      <c r="B60">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5085</v>
+      </c>
+      <c r="B61">
+        <v>251</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5116</v>
+      </c>
+      <c r="B62">
+        <v>255</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5034</v>
+      </c>
+      <c r="B63">
+        <v>257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5070</v>
+      </c>
+      <c r="B64">
+        <v>259</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5106</v>
+      </c>
+      <c r="B65">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5085</v>
+      </c>
+      <c r="B66">
+        <v>268</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5118</v>
+      </c>
+      <c r="B67">
+        <v>268</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5085</v>
+      </c>
+      <c r="B68">
+        <v>275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5097</v>
+      </c>
+      <c r="B69">
+        <v>267</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5127</v>
+      </c>
+      <c r="B70">
+        <v>267</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5122</v>
+      </c>
+      <c r="B71">
+        <v>267</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5052</v>
+      </c>
+      <c r="B72">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5041</v>
+      </c>
+      <c r="B73">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5039</v>
+      </c>
+      <c r="B74">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5020</v>
+      </c>
+      <c r="B75">
+        <v>258</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5043</v>
+      </c>
+      <c r="B76">
+        <v>260</v>
+      </c>
+      <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5017</v>
+      </c>
+      <c r="B77">
+        <v>2622</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5038</v>
+      </c>
+      <c r="B78">
+        <v>266</v>
+      </c>
+      <c r="C78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5041</v>
+      </c>
+      <c r="B79">
+        <v>266</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5038</v>
+      </c>
+      <c r="B80">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5041</v>
+      </c>
+      <c r="B81">
+        <v>267</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5052</v>
+      </c>
+      <c r="B82">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5155</v>
+      </c>
+      <c r="B83">
+        <v>269</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5134</v>
+      </c>
+      <c r="B84">
+        <v>269</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5157</v>
+      </c>
+      <c r="B85">
+        <v>269</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5043</v>
+      </c>
+      <c r="B86">
+        <v>269</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5041</v>
+      </c>
+      <c r="B87">
+        <v>276</v>
+      </c>
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>789</v>
+      </c>
+      <c r="B88">
+        <v>129</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1881</v>
+      </c>
+      <c r="B89">
+        <v>131</v>
+      </c>
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1866</v>
+      </c>
+      <c r="B90">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1491</v>
+      </c>
+      <c r="B91">
+        <v>130</v>
+      </c>
+      <c r="C91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>730</v>
+      </c>
+      <c r="B92">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>784</v>
+      </c>
+      <c r="B93">
+        <v>130</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>789</v>
+      </c>
+      <c r="B94">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1935</v>
+      </c>
+      <c r="B95">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1888</v>
+      </c>
+      <c r="B96">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1895</v>
+      </c>
+      <c r="B97">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1867</v>
+      </c>
+      <c r="B98">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1881</v>
+      </c>
+      <c r="B99">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1883</v>
+      </c>
+      <c r="B100">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1866</v>
+      </c>
+      <c r="B101">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1864</v>
+      </c>
+      <c r="B102">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1918</v>
+      </c>
+      <c r="B103">
+        <v>130</v>
+      </c>
+      <c r="C103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1491</v>
+      </c>
+      <c r="B104">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>730</v>
+      </c>
+      <c r="B105">
+        <v>130</v>
+      </c>
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1919</v>
+      </c>
+      <c r="B106">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>784</v>
+      </c>
+      <c r="B107">
+        <v>130</v>
+      </c>
+      <c r="C107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1899</v>
+      </c>
+      <c r="B108">
+        <v>132</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1915</v>
+      </c>
+      <c r="B109">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>561</v>
+      </c>
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>560</v>
+      </c>
+      <c r="B111">
+        <v>107</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>714</v>
+      </c>
+      <c r="B112">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>698</v>
+      </c>
+      <c r="B113">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>696</v>
+      </c>
+      <c r="B114">
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>529</v>
+      </c>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>528</v>
+      </c>
+      <c r="B116">
+        <v>100</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>627</v>
+      </c>
+      <c r="B117">
+        <v>101</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>626</v>
+      </c>
+      <c r="B118">
+        <v>101</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5774</v>
+      </c>
+      <c r="B119">
+        <v>197</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5773</v>
+      </c>
+      <c r="B120">
+        <v>197</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5776</v>
+      </c>
+      <c r="B121">
+        <v>197</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5775</v>
+      </c>
+      <c r="B122">
+        <v>197</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5692</v>
+      </c>
+      <c r="B123">
+        <v>202</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5691</v>
+      </c>
+      <c r="B124">
+        <v>202</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5085</v>
+      </c>
+      <c r="B125">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5128</v>
+      </c>
+      <c r="B126">
+        <v>277</v>
+      </c>
+      <c r="C126" t="s">
+        <v>134</v>
+      </c>
+      <c r="D126" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5097</v>
+      </c>
+      <c r="B127">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5122</v>
+      </c>
+      <c r="B128">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5051</v>
+      </c>
+      <c r="B129">
+        <v>246</v>
+      </c>
+      <c r="C129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5052</v>
+      </c>
+      <c r="B130">
+        <v>246</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5044</v>
+      </c>
+      <c r="B131">
+        <v>246</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5020</v>
+      </c>
+      <c r="B132">
+        <v>248</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5041</v>
+      </c>
+      <c r="B133">
+        <v>252</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5016</v>
+      </c>
+      <c r="B134">
+        <v>254</v>
+      </c>
+      <c r="C134" t="s">
+        <v>134</v>
+      </c>
+      <c r="D134" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5020</v>
+      </c>
+      <c r="B135">
+        <v>258</v>
+      </c>
+      <c r="C135" t="s">
+        <v>134</v>
+      </c>
+      <c r="D135" t="s">
+        <v>72</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5041</v>
+      </c>
+      <c r="B136">
+        <v>276</v>
+      </c>
+      <c r="C136" t="s">
+        <v>134</v>
+      </c>
+      <c r="D136" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4118</v>
+      </c>
+      <c r="B137">
+        <v>192</v>
+      </c>
+      <c r="C137" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4139</v>
+      </c>
+      <c r="B138">
+        <v>193</v>
+      </c>
+      <c r="C138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4781</v>
+      </c>
+      <c r="B139">
+        <v>52</v>
+      </c>
+      <c r="C139" t="s">
+        <v>444</v>
+      </c>
+      <c r="D139" t="s">
+        <v>443</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4111</v>
+      </c>
+      <c r="B140">
+        <v>192</v>
+      </c>
+      <c r="C140" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" t="s">
+        <v>216</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4171</v>
+      </c>
+      <c r="B141">
+        <v>193</v>
+      </c>
+      <c r="C141" t="s">
+        <v>134</v>
+      </c>
+      <c r="D141" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>226</v>
+      </c>
+      <c r="C142" t="s">
+        <v>134</v>
+      </c>
+      <c r="D142" t="s">
+        <v>130</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>353</v>
+      </c>
+      <c r="B143">
+        <v>233</v>
+      </c>
+      <c r="C143" t="s">
+        <v>134</v>
+      </c>
+      <c r="D143" t="s">
+        <v>130</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>329</v>
+      </c>
+      <c r="B144">
+        <v>233</v>
+      </c>
+      <c r="C144" t="s">
+        <v>134</v>
+      </c>
+      <c r="D144" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>302</v>
+      </c>
+      <c r="B145">
+        <v>224</v>
+      </c>
+      <c r="C145" t="s">
+        <v>134</v>
+      </c>
+      <c r="D145" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>286</v>
+      </c>
+      <c r="B146">
+        <v>224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>134</v>
+      </c>
+      <c r="D146" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>139</v>
+      </c>
+      <c r="B147">
+        <v>227</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>162</v>
+      </c>
+      <c r="B148">
+        <v>227</v>
+      </c>
+      <c r="C148" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>134</v>
+      </c>
+      <c r="D149" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>236</v>
+      </c>
+      <c r="C150" t="s">
+        <v>134</v>
+      </c>
+      <c r="D150" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>236</v>
+      </c>
+      <c r="C151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>236</v>
+      </c>
+      <c r="C152" t="s">
+        <v>134</v>
+      </c>
+      <c r="D152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>254</v>
+      </c>
+      <c r="B153">
+        <v>225</v>
+      </c>
+      <c r="C153" t="s">
+        <v>170</v>
+      </c>
+      <c r="D153" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>56</v>
+      </c>
+      <c r="B154">
+        <v>228</v>
+      </c>
+      <c r="C154" t="s">
+        <v>134</v>
+      </c>
+      <c r="D154" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>69</v>
+      </c>
+      <c r="B155">
+        <v>231</v>
+      </c>
+      <c r="C155" t="s">
+        <v>134</v>
+      </c>
+      <c r="D155" t="s">
+        <v>130</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>209</v>
+      </c>
+      <c r="B156">
+        <v>234</v>
+      </c>
+      <c r="C156" t="s">
+        <v>170</v>
+      </c>
+      <c r="D156" t="s">
+        <v>130</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>237</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2358</v>
+      </c>
+      <c r="B158">
+        <v>242</v>
+      </c>
+      <c r="C158" t="s">
+        <v>134</v>
+      </c>
+      <c r="D158" t="s">
+        <v>130</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2379</v>
+      </c>
+      <c r="B159">
+        <v>243</v>
+      </c>
+      <c r="C159" t="s">
+        <v>134</v>
+      </c>
+      <c r="D159" t="s">
+        <v>130</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1881</v>
+      </c>
+      <c r="B160">
+        <v>127</v>
+      </c>
+      <c r="C160" t="s">
+        <v>134</v>
+      </c>
+      <c r="D160" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1929</v>
+      </c>
+      <c r="B161">
+        <v>129</v>
+      </c>
+      <c r="C161" t="s">
+        <v>134</v>
+      </c>
+      <c r="D161" t="s">
+        <v>235</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1896</v>
+      </c>
+      <c r="B162">
+        <v>131</v>
+      </c>
+      <c r="C162" t="s">
+        <v>134</v>
+      </c>
+      <c r="D162" t="s">
+        <v>235</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1895</v>
+      </c>
+      <c r="B163">
+        <v>131</v>
+      </c>
+      <c r="C163" t="s">
+        <v>134</v>
+      </c>
+      <c r="D163" t="s">
+        <v>235</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1867</v>
+      </c>
+      <c r="B164">
+        <v>131</v>
+      </c>
+      <c r="C164" t="s">
+        <v>134</v>
+      </c>
+      <c r="D164" t="s">
+        <v>235</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1866</v>
+      </c>
+      <c r="B165">
+        <v>131</v>
+      </c>
+      <c r="C165" t="s">
+        <v>134</v>
+      </c>
+      <c r="D165" t="s">
+        <v>235</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1864</v>
+      </c>
+      <c r="B166">
+        <v>131</v>
+      </c>
+      <c r="C166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D166" t="s">
+        <v>235</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1916</v>
+      </c>
+      <c r="B167">
+        <v>128</v>
+      </c>
+      <c r="C167" t="s">
+        <v>134</v>
+      </c>
+      <c r="D167" t="s">
+        <v>235</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1491</v>
+      </c>
+      <c r="B168">
+        <v>130</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" t="s">
+        <v>235</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>730</v>
+      </c>
+      <c r="B169">
+        <v>130</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" t="s">
+        <v>235</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>784</v>
+      </c>
+      <c r="B170">
+        <v>130</v>
+      </c>
+      <c r="C170" t="s">
+        <v>170</v>
+      </c>
+      <c r="D170" t="s">
+        <v>235</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>705</v>
+      </c>
+      <c r="B171">
+        <v>104</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>57</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3590</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>134</v>
+      </c>
+      <c r="D172" t="s">
+        <v>449</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3561</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>134</v>
+      </c>
+      <c r="D173" t="s">
+        <v>449</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3616</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>134</v>
+      </c>
+      <c r="D174" t="s">
+        <v>449</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3590</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>134</v>
+      </c>
+      <c r="D175" t="s">
+        <v>449</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>5696</v>
+      </c>
+      <c r="B176">
+        <v>200</v>
+      </c>
+      <c r="C176" t="s">
+        <v>96</v>
+      </c>
+      <c r="D176" t="s">
+        <v>119</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4875</v>
+      </c>
+      <c r="B177">
+        <v>33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>439</v>
+      </c>
+      <c r="D177" t="s">
+        <v>435</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4982</v>
+      </c>
+      <c r="B178">
+        <v>30</v>
+      </c>
+      <c r="C178" t="s">
+        <v>134</v>
+      </c>
+      <c r="D178" t="s">
         <v>8</v>
       </c>
-      <c r="B1">
-        <v>4781</v>
-      </c>
-      <c r="C1">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>4781</v>
-      </c>
-      <c r="C2">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>190</v>
-      </c>
-      <c r="B3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4694</v>
+      </c>
+      <c r="B179">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>134</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4875</v>
+      </c>
+      <c r="B180">
+        <v>33</v>
+      </c>
+      <c r="C180" t="s">
+        <v>439</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>536</v>
+      </c>
+      <c r="B181">
+        <v>101</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>534</v>
+      </c>
+      <c r="B182">
+        <v>101</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>537</v>
+      </c>
+      <c r="B183">
+        <v>101</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>535</v>
+      </c>
+      <c r="B184">
+        <v>101</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>567</v>
+      </c>
+      <c r="B185">
+        <v>103</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>670</v>
+      </c>
+      <c r="B186">
+        <v>103</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>622</v>
+      </c>
+      <c r="B187">
+        <v>105</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>578</v>
+      </c>
+      <c r="B188">
+        <v>108</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>622</v>
+      </c>
+      <c r="B189">
+        <v>108</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>634</v>
+      </c>
+      <c r="B190">
+        <v>108</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5737</v>
+      </c>
+      <c r="B191">
+        <v>203</v>
+      </c>
+      <c r="C191" t="s">
+        <v>96</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5738</v>
+      </c>
+      <c r="B192">
+        <v>203</v>
+      </c>
+      <c r="C192" t="s">
+        <v>96</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>5740</v>
+      </c>
+      <c r="B193">
+        <v>203</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5739</v>
+      </c>
+      <c r="B194">
+        <v>203</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>5688</v>
+      </c>
+      <c r="B195">
+        <v>206</v>
+      </c>
+      <c r="C195" t="s">
+        <v>96</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5680</v>
+      </c>
+      <c r="B196">
+        <v>206</v>
+      </c>
+      <c r="C196" t="s">
+        <v>96</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5687</v>
+      </c>
+      <c r="B197">
+        <v>206</v>
+      </c>
+      <c r="C197" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5679</v>
+      </c>
+      <c r="B198">
+        <v>206</v>
+      </c>
+      <c r="C198" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5620</v>
+      </c>
+      <c r="B199">
+        <v>204</v>
+      </c>
+      <c r="C199" t="s">
+        <v>96</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5625</v>
+      </c>
+      <c r="B200">
+        <v>204</v>
+      </c>
+      <c r="C200" t="s">
+        <v>96</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>5626</v>
+      </c>
+      <c r="B201">
+        <v>204</v>
+      </c>
+      <c r="C201" t="s">
+        <v>96</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5619</v>
+      </c>
+      <c r="B202">
+        <v>204</v>
+      </c>
+      <c r="C202" t="s">
+        <v>96</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5085</v>
+      </c>
+      <c r="B203">
+        <v>249</v>
+      </c>
+      <c r="C203" t="s">
+        <v>134</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5070</v>
+      </c>
+      <c r="B204">
+        <v>249</v>
+      </c>
+      <c r="C204" t="s">
+        <v>134</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5044</v>
+      </c>
+      <c r="B205">
+        <v>246</v>
+      </c>
+      <c r="C205" t="s">
+        <v>134</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5041</v>
+      </c>
+      <c r="B206">
+        <v>276</v>
+      </c>
+      <c r="C206" t="s">
+        <v>134</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>3766</v>
       </c>
-      <c r="C3">
+      <c r="B207">
         <v>306</v>
       </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C207" t="s">
+        <v>134</v>
+      </c>
+      <c r="D207" t="s">
+        <v>320</v>
+      </c>
+      <c r="E207" s="2">
         <v>44412</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>191</v>
-      </c>
-      <c r="B4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>3766</v>
       </c>
-      <c r="C4">
+      <c r="B208">
         <v>306</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C208" t="s">
+        <v>134</v>
+      </c>
+      <c r="D208" t="s">
+        <v>320</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3766</v>
+      </c>
+      <c r="B209">
+        <v>306</v>
+      </c>
+      <c r="C209" t="s">
         <v>170</v>
       </c>
-      <c r="E4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D209" t="s">
+        <v>320</v>
+      </c>
+      <c r="E209" s="2">
         <v>44412</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>198</v>
-      </c>
-      <c r="B5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3856</v>
+      </c>
+      <c r="B210">
+        <v>308</v>
+      </c>
+      <c r="C210" t="s">
+        <v>134</v>
+      </c>
+      <c r="D210" t="s">
+        <v>320</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3808</v>
+      </c>
+      <c r="B211">
+        <v>315</v>
+      </c>
+      <c r="C211" t="s">
+        <v>134</v>
+      </c>
+      <c r="D211" t="s">
+        <v>320</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3808</v>
+      </c>
+      <c r="B212">
+        <v>315</v>
+      </c>
+      <c r="C212" t="s">
+        <v>134</v>
+      </c>
+      <c r="D212" t="s">
+        <v>320</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3737</v>
+      </c>
+      <c r="B213">
+        <v>317</v>
+      </c>
+      <c r="C213" t="s">
+        <v>134</v>
+      </c>
+      <c r="D213" t="s">
+        <v>320</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3748</v>
+      </c>
+      <c r="B214">
+        <v>307</v>
+      </c>
+      <c r="C214" t="s">
+        <v>134</v>
+      </c>
+      <c r="D214" t="s">
+        <v>320</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3819</v>
+      </c>
+      <c r="B215">
+        <v>309</v>
+      </c>
+      <c r="C215" t="s">
+        <v>134</v>
+      </c>
+      <c r="D215" t="s">
+        <v>320</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3819</v>
+      </c>
+      <c r="B216">
+        <v>309</v>
+      </c>
+      <c r="C216" t="s">
+        <v>134</v>
+      </c>
+      <c r="D216" t="s">
+        <v>320</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3701</v>
+      </c>
+      <c r="B217">
+        <v>310</v>
+      </c>
+      <c r="C217" t="s">
+        <v>134</v>
+      </c>
+      <c r="D217" t="s">
+        <v>320</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3787</v>
+      </c>
+      <c r="B218">
+        <v>311</v>
+      </c>
+      <c r="C218" t="s">
+        <v>134</v>
+      </c>
+      <c r="D218" t="s">
+        <v>320</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4100</v>
+      </c>
+      <c r="B219">
+        <v>192</v>
+      </c>
+      <c r="C219" t="s">
+        <v>134</v>
+      </c>
+      <c r="D219" t="s">
+        <v>206</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4161</v>
+      </c>
+      <c r="B220">
+        <v>193</v>
+      </c>
+      <c r="C220" t="s">
+        <v>134</v>
+      </c>
+      <c r="D220" t="s">
+        <v>206</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3766</v>
+      </c>
+      <c r="B221">
+        <v>306</v>
+      </c>
+      <c r="C221" t="s">
+        <v>134</v>
+      </c>
+      <c r="D221" t="s">
+        <v>329</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3766</v>
+      </c>
+      <c r="B222">
+        <v>306</v>
+      </c>
+      <c r="C222" t="s">
+        <v>134</v>
+      </c>
+      <c r="D222" t="s">
+        <v>329</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3766</v>
+      </c>
+      <c r="B223">
+        <v>306</v>
+      </c>
+      <c r="C223" t="s">
+        <v>170</v>
+      </c>
+      <c r="D223" t="s">
+        <v>329</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>3864</v>
       </c>
-      <c r="C5">
+      <c r="B224">
         <v>308</v>
       </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C224" t="s">
+        <v>134</v>
+      </c>
+      <c r="D224" t="s">
+        <v>329</v>
+      </c>
+      <c r="E224" s="2">
         <v>44411</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3864</v>
+      </c>
+      <c r="B225">
+        <v>308</v>
+      </c>
+      <c r="C225" t="s">
+        <v>134</v>
+      </c>
+      <c r="D225" t="s">
+        <v>329</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3856</v>
+      </c>
+      <c r="B226">
+        <v>308</v>
+      </c>
+      <c r="C226" t="s">
+        <v>134</v>
+      </c>
+      <c r="D226" t="s">
+        <v>329</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>3700</v>
       </c>
-      <c r="C6">
+      <c r="B227">
         <v>312</v>
       </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C227" t="s">
+        <v>134</v>
+      </c>
+      <c r="D227" t="s">
+        <v>329</v>
+      </c>
+      <c r="E227" s="2">
         <v>44402</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>205</v>
-      </c>
-      <c r="B7">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3725</v>
+      </c>
+      <c r="B228">
+        <v>314</v>
+      </c>
+      <c r="C228" t="s">
+        <v>134</v>
+      </c>
+      <c r="D228" t="s">
+        <v>329</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>3721</v>
       </c>
-      <c r="C7">
+      <c r="B229">
         <v>314</v>
       </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C229" t="s">
+        <v>134</v>
+      </c>
+      <c r="D229" t="s">
+        <v>329</v>
+      </c>
+      <c r="E229" s="2">
         <v>44402</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>208</v>
-      </c>
-      <c r="B8">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>3808</v>
       </c>
-      <c r="C8">
+      <c r="B230">
         <v>315</v>
       </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="C230" t="s">
+        <v>134</v>
+      </c>
+      <c r="D230" t="s">
+        <v>329</v>
+      </c>
+      <c r="E230" s="2">
         <v>44405</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>213</v>
-      </c>
-      <c r="B9">
-        <v>3738</v>
-      </c>
-      <c r="C9">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3808</v>
+      </c>
+      <c r="B231">
+        <v>315</v>
+      </c>
+      <c r="C231" t="s">
+        <v>170</v>
+      </c>
+      <c r="D231" t="s">
+        <v>329</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3737</v>
+      </c>
+      <c r="B232">
         <v>317</v>
       </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="C232" t="s">
+        <v>134</v>
+      </c>
+      <c r="D232" t="s">
+        <v>329</v>
+      </c>
+      <c r="E232" s="2">
         <v>44408</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>214</v>
-      </c>
-      <c r="B10">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>3737</v>
       </c>
-      <c r="C10">
+      <c r="B233">
         <v>317</v>
       </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C233" t="s">
+        <v>134</v>
+      </c>
+      <c r="D233" t="s">
+        <v>329</v>
+      </c>
+      <c r="E233" s="2">
         <v>44408</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>218</v>
-      </c>
-      <c r="B11">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>3835</v>
       </c>
-      <c r="C11">
+      <c r="B234">
         <v>318</v>
       </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C234" t="s">
+        <v>134</v>
+      </c>
+      <c r="D234" t="s">
+        <v>329</v>
+      </c>
+      <c r="E234" s="2">
         <v>44408</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>220</v>
-      </c>
-      <c r="B12">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>3748</v>
       </c>
-      <c r="C12">
+      <c r="B235">
         <v>307</v>
       </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C235" t="s">
+        <v>134</v>
+      </c>
+      <c r="D235" t="s">
+        <v>329</v>
+      </c>
+      <c r="E235" s="2">
         <v>44410</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>221</v>
-      </c>
-      <c r="B13">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>3748</v>
       </c>
-      <c r="C13">
+      <c r="B236">
         <v>307</v>
       </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C236" t="s">
+        <v>134</v>
+      </c>
+      <c r="D236" t="s">
+        <v>329</v>
+      </c>
+      <c r="E236" s="2">
         <v>44410</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>225</v>
-      </c>
-      <c r="B14">
-        <v>3822</v>
-      </c>
-      <c r="C14">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3819</v>
+      </c>
+      <c r="B237">
         <v>309</v>
       </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="C237" t="s">
+        <v>134</v>
+      </c>
+      <c r="D237" t="s">
+        <v>329</v>
+      </c>
+      <c r="E237" s="2">
         <v>44401</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>226</v>
-      </c>
-      <c r="B15">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>3819</v>
       </c>
-      <c r="C15">
+      <c r="B238">
         <v>309</v>
       </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C238" t="s">
+        <v>134</v>
+      </c>
+      <c r="D238" t="s">
+        <v>329</v>
+      </c>
+      <c r="E238" s="2">
         <v>44401</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>227</v>
-      </c>
-      <c r="B16">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>3819</v>
       </c>
-      <c r="C16">
+      <c r="B239">
         <v>309</v>
       </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="C239" t="s">
+        <v>134</v>
+      </c>
+      <c r="D239" t="s">
+        <v>329</v>
+      </c>
+      <c r="E239" s="2">
         <v>44401</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>233</v>
-      </c>
-      <c r="B17">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>3703</v>
       </c>
-      <c r="C17">
+      <c r="B240">
         <v>310</v>
       </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="C240" t="s">
+        <v>134</v>
+      </c>
+      <c r="D240" t="s">
+        <v>329</v>
+      </c>
+      <c r="E240" s="2">
         <v>44403</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>234</v>
-      </c>
-      <c r="B18">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>3703</v>
       </c>
-      <c r="C18">
+      <c r="B241">
         <v>310</v>
       </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C241" t="s">
+        <v>134</v>
+      </c>
+      <c r="D241" t="s">
+        <v>329</v>
+      </c>
+      <c r="E241" s="2">
         <v>44403</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>235</v>
-      </c>
-      <c r="B19">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>3706</v>
       </c>
-      <c r="C19">
+      <c r="B242">
         <v>310</v>
       </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="C242" t="s">
+        <v>134</v>
+      </c>
+      <c r="D242" t="s">
+        <v>329</v>
+      </c>
+      <c r="E242" s="2">
         <v>44403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>236</v>
-      </c>
-      <c r="B20">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>3706</v>
       </c>
-      <c r="C20">
+      <c r="B243">
         <v>310</v>
       </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="C243" t="s">
+        <v>134</v>
+      </c>
+      <c r="D243" t="s">
+        <v>329</v>
+      </c>
+      <c r="E243" s="2">
         <v>44403</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>242</v>
-      </c>
-      <c r="B21">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>3787</v>
       </c>
-      <c r="C21">
+      <c r="B244">
         <v>311</v>
       </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="C244" t="s">
+        <v>134</v>
+      </c>
+      <c r="D244" t="s">
+        <v>329</v>
+      </c>
+      <c r="E244" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>4154</v>
-      </c>
-      <c r="C22">
-        <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>4989</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>4855</v>
-      </c>
-      <c r="C24">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>4220</v>
-      </c>
-      <c r="C25">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>644</v>
-      </c>
-      <c r="C26">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>4476</v>
-      </c>
-      <c r="C27">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>4181</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>4875</v>
-      </c>
-      <c r="C29">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>19</v>
-      </c>
-      <c r="B30">
-        <v>4826</v>
-      </c>
-      <c r="C30">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>4573</v>
-      </c>
-      <c r="C31">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>533</v>
-      </c>
-      <c r="C32">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>532</v>
-      </c>
-      <c r="C33">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>567</v>
-      </c>
-      <c r="C34">
-        <v>103</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>627</v>
-      </c>
-      <c r="C35">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="2">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>626</v>
-      </c>
-      <c r="C36">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="2">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>622</v>
-      </c>
-      <c r="C37">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>622</v>
-      </c>
-      <c r="C38">
-        <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>55</v>
-      </c>
-      <c r="B39">
-        <v>5774</v>
-      </c>
-      <c r="C39">
-        <v>197</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>56</v>
-      </c>
-      <c r="B40">
-        <v>5773</v>
-      </c>
-      <c r="C40">
-        <v>197</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>65</v>
-      </c>
-      <c r="B41">
-        <v>5810</v>
-      </c>
-      <c r="C41">
-        <v>209</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>70</v>
-      </c>
-      <c r="B42">
-        <v>5596</v>
-      </c>
-      <c r="C42">
-        <v>198</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>72</v>
-      </c>
-      <c r="B43">
-        <v>5692</v>
-      </c>
-      <c r="C43">
-        <v>202</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>73</v>
-      </c>
-      <c r="B44">
-        <v>5691</v>
-      </c>
-      <c r="C44">
-        <v>202</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>80</v>
-      </c>
-      <c r="B45">
-        <v>5732</v>
-      </c>
-      <c r="C45">
-        <v>210</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>81</v>
-      </c>
-      <c r="B46">
-        <v>306</v>
-      </c>
-      <c r="C46">
-        <v>223</v>
-      </c>
-      <c r="D46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>82</v>
-      </c>
-      <c r="B47">
-        <v>138</v>
-      </c>
-      <c r="C47">
-        <v>226</v>
-      </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>84</v>
-      </c>
-      <c r="B48">
-        <v>76</v>
-      </c>
-      <c r="C48">
-        <v>231</v>
-      </c>
-      <c r="D48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>85</v>
-      </c>
-      <c r="B49">
-        <v>343</v>
-      </c>
-      <c r="C49">
-        <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>88</v>
-      </c>
-      <c r="B50">
-        <v>192</v>
-      </c>
-      <c r="C50">
-        <v>235</v>
-      </c>
-      <c r="D50" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>89</v>
-      </c>
-      <c r="B51">
-        <v>182</v>
-      </c>
-      <c r="C51">
-        <v>235</v>
-      </c>
-      <c r="D51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>98</v>
-      </c>
-      <c r="B52">
-        <v>237</v>
-      </c>
-      <c r="C52">
-        <v>225</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>100</v>
-      </c>
-      <c r="B53">
-        <v>162</v>
-      </c>
-      <c r="C53">
-        <v>228</v>
-      </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>102</v>
-      </c>
-      <c r="B54">
-        <v>237</v>
-      </c>
-      <c r="C54">
-        <v>229</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>103</v>
-      </c>
-      <c r="B55">
-        <v>289</v>
-      </c>
-      <c r="C55">
-        <v>229</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>104</v>
-      </c>
-      <c r="B56">
-        <v>38</v>
-      </c>
-      <c r="C56">
-        <v>231</v>
-      </c>
-      <c r="D56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>106</v>
-      </c>
-      <c r="B57">
-        <v>199</v>
-      </c>
-      <c r="C57">
-        <v>234</v>
-      </c>
-      <c r="D57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>108</v>
-      </c>
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>237</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>111</v>
-      </c>
-      <c r="B59">
-        <v>2379</v>
-      </c>
-      <c r="C59">
-        <v>243</v>
-      </c>
-      <c r="D59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>113</v>
-      </c>
-      <c r="B60">
-        <v>5085</v>
-      </c>
-      <c r="C60">
-        <v>249</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>117</v>
-      </c>
-      <c r="B61">
-        <v>5085</v>
-      </c>
-      <c r="C61">
-        <v>251</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>118</v>
-      </c>
-      <c r="B62">
-        <v>5116</v>
-      </c>
-      <c r="C62">
-        <v>255</v>
-      </c>
-      <c r="D62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>119</v>
-      </c>
-      <c r="B63">
-        <v>5034</v>
-      </c>
-      <c r="C63">
-        <v>257</v>
-      </c>
-      <c r="D63" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>120</v>
-      </c>
-      <c r="B64">
-        <v>5070</v>
-      </c>
-      <c r="C64">
-        <v>259</v>
-      </c>
-      <c r="D64" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>121</v>
-      </c>
-      <c r="B65">
-        <v>5106</v>
-      </c>
-      <c r="C65">
-        <v>268</v>
-      </c>
-      <c r="D65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>122</v>
-      </c>
-      <c r="B66">
-        <v>5085</v>
-      </c>
-      <c r="C66">
-        <v>268</v>
-      </c>
-      <c r="D66" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>123</v>
-      </c>
-      <c r="B67">
-        <v>5118</v>
-      </c>
-      <c r="C67">
-        <v>268</v>
-      </c>
-      <c r="D67" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>124</v>
-      </c>
-      <c r="B68">
-        <v>5085</v>
-      </c>
-      <c r="C68">
-        <v>275</v>
-      </c>
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>126</v>
-      </c>
-      <c r="B69">
-        <v>5097</v>
-      </c>
-      <c r="C69">
-        <v>267</v>
-      </c>
-      <c r="D69" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>127</v>
-      </c>
-      <c r="B70">
-        <v>5127</v>
-      </c>
-      <c r="C70">
-        <v>267</v>
-      </c>
-      <c r="D70" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>128</v>
-      </c>
-      <c r="B71">
-        <v>5122</v>
-      </c>
-      <c r="C71">
-        <v>267</v>
-      </c>
-      <c r="D71" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>131</v>
-      </c>
-      <c r="B72">
-        <v>5052</v>
-      </c>
-      <c r="C72">
-        <v>246</v>
-      </c>
-      <c r="D72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>137</v>
-      </c>
-      <c r="B73">
-        <v>5041</v>
-      </c>
-      <c r="C73">
-        <v>252</v>
-      </c>
-      <c r="D73" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>138</v>
-      </c>
-      <c r="B74">
-        <v>5039</v>
-      </c>
-      <c r="C74">
-        <v>252</v>
-      </c>
-      <c r="D74" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>141</v>
-      </c>
-      <c r="B75">
-        <v>5020</v>
-      </c>
-      <c r="C75">
-        <v>258</v>
-      </c>
-      <c r="D75" t="s">
-        <v>170</v>
-      </c>
-      <c r="E75" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>143</v>
-      </c>
-      <c r="B76">
-        <v>5043</v>
-      </c>
-      <c r="C76">
-        <v>260</v>
-      </c>
-      <c r="D76" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>144</v>
-      </c>
-      <c r="B77">
-        <v>5017</v>
-      </c>
-      <c r="C77">
-        <v>2622</v>
-      </c>
-      <c r="D77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>145</v>
-      </c>
-      <c r="B78">
-        <v>5038</v>
-      </c>
-      <c r="C78">
-        <v>266</v>
-      </c>
-      <c r="D78" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>146</v>
-      </c>
-      <c r="B79">
-        <v>5041</v>
-      </c>
-      <c r="C79">
-        <v>266</v>
-      </c>
-      <c r="D79" t="s">
-        <v>170</v>
-      </c>
-      <c r="E79" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>147</v>
-      </c>
-      <c r="B80">
-        <v>5038</v>
-      </c>
-      <c r="C80">
-        <v>267</v>
-      </c>
-      <c r="D80" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>148</v>
-      </c>
-      <c r="B81">
-        <v>5041</v>
-      </c>
-      <c r="C81">
-        <v>267</v>
-      </c>
-      <c r="D81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>149</v>
-      </c>
-      <c r="B82">
-        <v>5052</v>
-      </c>
-      <c r="C82">
-        <v>267</v>
-      </c>
-      <c r="D82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>150</v>
-      </c>
-      <c r="B83">
-        <v>5155</v>
-      </c>
-      <c r="C83">
-        <v>269</v>
-      </c>
-      <c r="D83" t="s">
-        <v>170</v>
-      </c>
-      <c r="E83" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>151</v>
-      </c>
-      <c r="B84">
-        <v>5134</v>
-      </c>
-      <c r="C84">
-        <v>269</v>
-      </c>
-      <c r="D84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E84" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>152</v>
-      </c>
-      <c r="B85">
-        <v>5157</v>
-      </c>
-      <c r="C85">
-        <v>269</v>
-      </c>
-      <c r="D85" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>153</v>
-      </c>
-      <c r="B86">
-        <v>5043</v>
-      </c>
-      <c r="C86">
-        <v>269</v>
-      </c>
-      <c r="D86" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>154</v>
-      </c>
-      <c r="B87">
-        <v>5041</v>
-      </c>
-      <c r="C87">
-        <v>276</v>
-      </c>
-      <c r="D87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="2">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>158</v>
-      </c>
-      <c r="B88">
-        <v>789</v>
-      </c>
-      <c r="C88">
-        <v>129</v>
-      </c>
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>162</v>
-      </c>
-      <c r="B89">
-        <v>1881</v>
-      </c>
-      <c r="C89">
-        <v>131</v>
-      </c>
-      <c r="D89" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>163</v>
-      </c>
-      <c r="B90">
-        <v>1866</v>
-      </c>
-      <c r="C90">
-        <v>131</v>
-      </c>
-      <c r="D90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>177</v>
-      </c>
-      <c r="B91">
-        <v>1491</v>
-      </c>
-      <c r="C91">
-        <v>130</v>
-      </c>
-      <c r="D91" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>178</v>
-      </c>
-      <c r="B92">
-        <v>730</v>
-      </c>
-      <c r="C92">
-        <v>130</v>
-      </c>
-      <c r="D92" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>179</v>
-      </c>
-      <c r="B93">
-        <v>784</v>
-      </c>
-      <c r="C93">
-        <v>130</v>
-      </c>
-      <c r="D93" t="s">
-        <v>170</v>
-      </c>
-      <c r="E93" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>159</v>
-      </c>
-      <c r="B94">
-        <v>789</v>
-      </c>
-      <c r="C94">
-        <v>129</v>
-      </c>
-      <c r="D94" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" t="s">
-        <v>239</v>
-      </c>
-      <c r="F94" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>160</v>
-      </c>
-      <c r="B95">
-        <v>1935</v>
-      </c>
-      <c r="C95">
-        <v>129</v>
-      </c>
-      <c r="D95" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" t="s">
-        <v>239</v>
-      </c>
-      <c r="F95" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>164</v>
-      </c>
-      <c r="B96">
-        <v>1888</v>
-      </c>
-      <c r="C96">
-        <v>131</v>
-      </c>
-      <c r="D96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" t="s">
-        <v>239</v>
-      </c>
-      <c r="F96" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>165</v>
-      </c>
-      <c r="B97">
-        <v>1895</v>
-      </c>
-      <c r="C97">
-        <v>131</v>
-      </c>
-      <c r="D97" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" t="s">
-        <v>239</v>
-      </c>
-      <c r="F97" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>166</v>
-      </c>
-      <c r="B98">
-        <v>1867</v>
-      </c>
-      <c r="C98">
-        <v>131</v>
-      </c>
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" t="s">
-        <v>239</v>
-      </c>
-      <c r="F98" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>167</v>
-      </c>
-      <c r="B99">
-        <v>1881</v>
-      </c>
-      <c r="C99">
-        <v>131</v>
-      </c>
-      <c r="D99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" t="s">
-        <v>239</v>
-      </c>
-      <c r="F99" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>168</v>
-      </c>
-      <c r="B100">
-        <v>1883</v>
-      </c>
-      <c r="C100">
-        <v>131</v>
-      </c>
-      <c r="D100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" t="s">
-        <v>239</v>
-      </c>
-      <c r="F100" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>169</v>
-      </c>
-      <c r="B101">
-        <v>1866</v>
-      </c>
-      <c r="C101">
-        <v>131</v>
-      </c>
-      <c r="D101" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" t="s">
-        <v>239</v>
-      </c>
-      <c r="F101" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>170</v>
-      </c>
-      <c r="B102">
-        <v>1864</v>
-      </c>
-      <c r="C102">
-        <v>131</v>
-      </c>
-      <c r="D102" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" t="s">
-        <v>239</v>
-      </c>
-      <c r="F102" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>180</v>
-      </c>
-      <c r="B103">
-        <v>1918</v>
-      </c>
-      <c r="C103">
-        <v>130</v>
-      </c>
-      <c r="D103" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" t="s">
-        <v>239</v>
-      </c>
-      <c r="F103" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>181</v>
-      </c>
-      <c r="B104">
-        <v>1491</v>
-      </c>
-      <c r="C104">
-        <v>130</v>
-      </c>
-      <c r="D104" t="s">
-        <v>170</v>
-      </c>
-      <c r="E104" t="s">
-        <v>239</v>
-      </c>
-      <c r="F104" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>182</v>
-      </c>
-      <c r="B105">
-        <v>730</v>
-      </c>
-      <c r="C105">
-        <v>130</v>
-      </c>
-      <c r="D105" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" t="s">
-        <v>239</v>
-      </c>
-      <c r="F105" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>183</v>
-      </c>
-      <c r="B106">
-        <v>1919</v>
-      </c>
-      <c r="C106">
-        <v>130</v>
-      </c>
-      <c r="D106" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" t="s">
-        <v>239</v>
-      </c>
-      <c r="F106" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>184</v>
-      </c>
-      <c r="B107">
-        <v>784</v>
-      </c>
-      <c r="C107">
-        <v>130</v>
-      </c>
-      <c r="D107" t="s">
-        <v>170</v>
-      </c>
-      <c r="E107" t="s">
-        <v>239</v>
-      </c>
-      <c r="F107" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>188</v>
-      </c>
-      <c r="B108">
-        <v>1899</v>
-      </c>
-      <c r="C108">
-        <v>132</v>
-      </c>
-      <c r="D108" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" t="s">
-        <v>239</v>
-      </c>
-      <c r="F108" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>189</v>
-      </c>
-      <c r="B109">
-        <v>1915</v>
-      </c>
-      <c r="C109">
-        <v>132</v>
-      </c>
-      <c r="D109" t="s">
-        <v>170</v>
-      </c>
-      <c r="E109" t="s">
-        <v>239</v>
-      </c>
-      <c r="F109" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>21</v>
-      </c>
-      <c r="B110">
-        <v>561</v>
-      </c>
-      <c r="C110">
-        <v>107</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>22</v>
-      </c>
-      <c r="B111">
-        <v>560</v>
-      </c>
-      <c r="C111">
-        <v>107</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>32</v>
-      </c>
-      <c r="B112">
-        <v>714</v>
-      </c>
-      <c r="C112">
-        <v>104</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>40</v>
-      </c>
-      <c r="F112" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>34</v>
-      </c>
-      <c r="B113">
-        <v>698</v>
-      </c>
-      <c r="C113">
-        <v>109</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>40</v>
-      </c>
-      <c r="F113" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>35</v>
-      </c>
-      <c r="B114">
-        <v>696</v>
-      </c>
-      <c r="C114">
-        <v>109</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>40</v>
-      </c>
-      <c r="F114" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>36</v>
-      </c>
-      <c r="B115">
-        <v>529</v>
-      </c>
-      <c r="C115">
-        <v>100</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>40</v>
-      </c>
-      <c r="F115" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>37</v>
-      </c>
-      <c r="B116">
-        <v>528</v>
-      </c>
-      <c r="C116">
-        <v>100</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>40</v>
-      </c>
-      <c r="B117">
-        <v>627</v>
-      </c>
-      <c r="C117">
-        <v>101</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>40</v>
-      </c>
-      <c r="F117" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>41</v>
-      </c>
-      <c r="B118">
-        <v>626</v>
-      </c>
-      <c r="C118">
-        <v>101</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>57</v>
-      </c>
-      <c r="B119">
-        <v>5774</v>
-      </c>
-      <c r="C119">
-        <v>197</v>
-      </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
-        <v>72</v>
-      </c>
-      <c r="F119" s="2">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>58</v>
-      </c>
-      <c r="B120">
-        <v>5773</v>
-      </c>
-      <c r="C120">
-        <v>197</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>72</v>
-      </c>
-      <c r="F120" s="2">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>59</v>
-      </c>
-      <c r="B121">
-        <v>5776</v>
-      </c>
-      <c r="C121">
-        <v>197</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>72</v>
-      </c>
-      <c r="F121" s="2">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>60</v>
-      </c>
-      <c r="B122">
-        <v>5775</v>
-      </c>
-      <c r="C122">
-        <v>197</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>72</v>
-      </c>
-      <c r="F122" s="2">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>74</v>
-      </c>
-      <c r="B123">
-        <v>5692</v>
-      </c>
-      <c r="C123">
-        <v>202</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>72</v>
-      </c>
-      <c r="F123" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>75</v>
-      </c>
-      <c r="B124">
-        <v>5691</v>
-      </c>
-      <c r="C124">
-        <v>202</v>
-      </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" t="s">
-        <v>72</v>
-      </c>
-      <c r="F124" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>114</v>
-      </c>
-      <c r="B125">
-        <v>5085</v>
-      </c>
-      <c r="C125">
-        <v>249</v>
-      </c>
-      <c r="D125" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" t="s">
-        <v>72</v>
-      </c>
-      <c r="F125" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>5128</v>
-      </c>
-      <c r="C126">
-        <v>277</v>
-      </c>
-      <c r="D126" t="s">
-        <v>134</v>
-      </c>
-      <c r="E126" t="s">
-        <v>72</v>
-      </c>
-      <c r="F126" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>129</v>
-      </c>
-      <c r="B127">
-        <v>5097</v>
-      </c>
-      <c r="C127">
-        <v>267</v>
-      </c>
-      <c r="D127" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" t="s">
-        <v>72</v>
-      </c>
-      <c r="F127" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>130</v>
-      </c>
-      <c r="B128">
-        <v>5122</v>
-      </c>
-      <c r="C128">
-        <v>267</v>
-      </c>
-      <c r="D128" t="s">
-        <v>134</v>
-      </c>
-      <c r="E128" t="s">
-        <v>72</v>
-      </c>
-      <c r="F128" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>132</v>
-      </c>
-      <c r="B129">
-        <v>5051</v>
-      </c>
-      <c r="C129">
-        <v>246</v>
-      </c>
-      <c r="D129" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" t="s">
-        <v>72</v>
-      </c>
-      <c r="F129" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>133</v>
-      </c>
-      <c r="B130">
-        <v>5052</v>
-      </c>
-      <c r="C130">
-        <v>246</v>
-      </c>
-      <c r="D130" t="s">
-        <v>134</v>
-      </c>
-      <c r="E130" t="s">
-        <v>72</v>
-      </c>
-      <c r="F130" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>134</v>
-      </c>
-      <c r="B131">
-        <v>5044</v>
-      </c>
-      <c r="C131">
-        <v>246</v>
-      </c>
-      <c r="D131" t="s">
-        <v>134</v>
-      </c>
-      <c r="E131" t="s">
-        <v>72</v>
-      </c>
-      <c r="F131" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>136</v>
-      </c>
-      <c r="B132">
-        <v>5020</v>
-      </c>
-      <c r="C132">
-        <v>248</v>
-      </c>
-      <c r="D132" t="s">
-        <v>134</v>
-      </c>
-      <c r="E132" t="s">
-        <v>72</v>
-      </c>
-      <c r="F132" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>139</v>
-      </c>
-      <c r="B133">
-        <v>5041</v>
-      </c>
-      <c r="C133">
-        <v>252</v>
-      </c>
-      <c r="D133" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" t="s">
-        <v>72</v>
-      </c>
-      <c r="F133" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>140</v>
-      </c>
-      <c r="B134">
-        <v>5016</v>
-      </c>
-      <c r="C134">
-        <v>254</v>
-      </c>
-      <c r="D134" t="s">
-        <v>134</v>
-      </c>
-      <c r="E134" t="s">
-        <v>72</v>
-      </c>
-      <c r="F134" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>142</v>
-      </c>
-      <c r="B135">
-        <v>5020</v>
-      </c>
-      <c r="C135">
-        <v>258</v>
-      </c>
-      <c r="D135" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" t="s">
-        <v>72</v>
-      </c>
-      <c r="F135" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>155</v>
-      </c>
-      <c r="B136">
-        <v>5041</v>
-      </c>
-      <c r="C136">
-        <v>276</v>
-      </c>
-      <c r="D136" t="s">
-        <v>134</v>
-      </c>
-      <c r="E136" t="s">
-        <v>72</v>
-      </c>
-      <c r="F136" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>48</v>
-      </c>
-      <c r="B137">
-        <v>4118</v>
-      </c>
-      <c r="C137">
-        <v>192</v>
-      </c>
-      <c r="D137" t="s">
-        <v>134</v>
-      </c>
-      <c r="E137" t="s">
-        <v>212</v>
-      </c>
-      <c r="F137" s="2">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>52</v>
-      </c>
-      <c r="B138">
-        <v>4139</v>
-      </c>
-      <c r="C138">
-        <v>193</v>
-      </c>
-      <c r="D138" t="s">
-        <v>134</v>
-      </c>
-      <c r="E138" t="s">
-        <v>212</v>
-      </c>
-      <c r="F138" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>10</v>
-      </c>
-      <c r="B139">
-        <v>4781</v>
-      </c>
-      <c r="C139">
-        <v>52</v>
-      </c>
-      <c r="D139" t="s">
-        <v>444</v>
-      </c>
-      <c r="E139" t="s">
-        <v>443</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>49</v>
-      </c>
-      <c r="B140">
-        <v>4111</v>
-      </c>
-      <c r="C140">
-        <v>192</v>
-      </c>
-      <c r="D140" t="s">
-        <v>134</v>
-      </c>
-      <c r="E140" t="s">
-        <v>216</v>
-      </c>
-      <c r="F140" s="2">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>53</v>
-      </c>
-      <c r="B141">
-        <v>4171</v>
-      </c>
-      <c r="C141">
-        <v>193</v>
-      </c>
-      <c r="D141" t="s">
-        <v>134</v>
-      </c>
-      <c r="E141" t="s">
-        <v>216</v>
-      </c>
-      <c r="F141" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>83</v>
-      </c>
-      <c r="B142">
-        <v>139</v>
-      </c>
-      <c r="C142">
-        <v>226</v>
-      </c>
-      <c r="D142" t="s">
-        <v>134</v>
-      </c>
-      <c r="E142" t="s">
-        <v>130</v>
-      </c>
-      <c r="F142" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>86</v>
-      </c>
-      <c r="B143">
-        <v>353</v>
-      </c>
-      <c r="C143">
-        <v>233</v>
-      </c>
-      <c r="D143" t="s">
-        <v>134</v>
-      </c>
-      <c r="E143" t="s">
-        <v>130</v>
-      </c>
-      <c r="F143" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>87</v>
-      </c>
-      <c r="B144">
-        <v>329</v>
-      </c>
-      <c r="C144">
-        <v>233</v>
-      </c>
-      <c r="D144" t="s">
-        <v>134</v>
-      </c>
-      <c r="E144" t="s">
-        <v>130</v>
-      </c>
-      <c r="F144" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>90</v>
-      </c>
-      <c r="B145">
-        <v>302</v>
-      </c>
-      <c r="C145">
-        <v>224</v>
-      </c>
-      <c r="D145" t="s">
-        <v>134</v>
-      </c>
-      <c r="E145" t="s">
-        <v>130</v>
-      </c>
-      <c r="F145" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>91</v>
-      </c>
-      <c r="B146">
-        <v>286</v>
-      </c>
-      <c r="C146">
-        <v>224</v>
-      </c>
-      <c r="D146" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F146" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>92</v>
-      </c>
-      <c r="B147">
-        <v>139</v>
-      </c>
-      <c r="C147">
-        <v>227</v>
-      </c>
-      <c r="D147" t="s">
-        <v>170</v>
-      </c>
-      <c r="E147" t="s">
-        <v>130</v>
-      </c>
-      <c r="F147" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>93</v>
-      </c>
-      <c r="B148">
-        <v>162</v>
-      </c>
-      <c r="C148">
-        <v>227</v>
-      </c>
-      <c r="D148" t="s">
-        <v>170</v>
-      </c>
-      <c r="E148" t="s">
-        <v>130</v>
-      </c>
-      <c r="F148" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>94</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>236</v>
-      </c>
-      <c r="D149" t="s">
-        <v>134</v>
-      </c>
-      <c r="E149" t="s">
-        <v>130</v>
-      </c>
-      <c r="F149" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>95</v>
-      </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150">
-        <v>236</v>
-      </c>
-      <c r="D150" t="s">
-        <v>134</v>
-      </c>
-      <c r="E150" t="s">
-        <v>130</v>
-      </c>
-      <c r="F150" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>96</v>
-      </c>
-      <c r="B151">
-        <v>3</v>
-      </c>
-      <c r="C151">
-        <v>236</v>
-      </c>
-      <c r="D151" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" t="s">
-        <v>130</v>
-      </c>
-      <c r="F151" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>97</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152">
-        <v>236</v>
-      </c>
-      <c r="D152" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" t="s">
-        <v>130</v>
-      </c>
-      <c r="F152" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>99</v>
-      </c>
-      <c r="B153">
-        <v>254</v>
-      </c>
-      <c r="C153">
-        <v>225</v>
-      </c>
-      <c r="D153" t="s">
-        <v>170</v>
-      </c>
-      <c r="E153" t="s">
-        <v>130</v>
-      </c>
-      <c r="F153" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>101</v>
-      </c>
-      <c r="B154">
-        <v>56</v>
-      </c>
-      <c r="C154">
-        <v>228</v>
-      </c>
-      <c r="D154" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" t="s">
-        <v>130</v>
-      </c>
-      <c r="F154" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>105</v>
-      </c>
-      <c r="B155">
-        <v>69</v>
-      </c>
-      <c r="C155">
-        <v>231</v>
-      </c>
-      <c r="D155" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" t="s">
-        <v>130</v>
-      </c>
-      <c r="F155" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>107</v>
-      </c>
-      <c r="B156">
-        <v>209</v>
-      </c>
-      <c r="C156">
-        <v>234</v>
-      </c>
-      <c r="D156" t="s">
-        <v>170</v>
-      </c>
-      <c r="E156" t="s">
-        <v>130</v>
-      </c>
-      <c r="F156" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>109</v>
-      </c>
-      <c r="B157">
-        <v>7</v>
-      </c>
-      <c r="C157">
-        <v>237</v>
-      </c>
-      <c r="D157" t="s">
-        <v>170</v>
-      </c>
-      <c r="E157" t="s">
-        <v>130</v>
-      </c>
-      <c r="F157" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>110</v>
-      </c>
-      <c r="B158">
-        <v>2358</v>
-      </c>
-      <c r="C158">
-        <v>242</v>
-      </c>
-      <c r="D158" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158" t="s">
-        <v>130</v>
-      </c>
-      <c r="F158" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>112</v>
-      </c>
-      <c r="B159">
-        <v>2379</v>
-      </c>
-      <c r="C159">
-        <v>243</v>
-      </c>
-      <c r="D159" t="s">
-        <v>134</v>
-      </c>
-      <c r="E159" t="s">
-        <v>130</v>
-      </c>
-      <c r="F159" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>157</v>
-      </c>
-      <c r="B160">
-        <v>1881</v>
-      </c>
-      <c r="C160">
-        <v>127</v>
-      </c>
-      <c r="D160" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" t="s">
-        <v>235</v>
-      </c>
-      <c r="F160" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>161</v>
-      </c>
-      <c r="B161">
-        <v>1929</v>
-      </c>
-      <c r="C161">
-        <v>129</v>
-      </c>
-      <c r="D161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" t="s">
-        <v>235</v>
-      </c>
-      <c r="F161" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>171</v>
-      </c>
-      <c r="B162">
-        <v>1896</v>
-      </c>
-      <c r="C162">
-        <v>131</v>
-      </c>
-      <c r="D162" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" t="s">
-        <v>235</v>
-      </c>
-      <c r="F162" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>172</v>
-      </c>
-      <c r="B163">
-        <v>1895</v>
-      </c>
-      <c r="C163">
-        <v>131</v>
-      </c>
-      <c r="D163" t="s">
-        <v>134</v>
-      </c>
-      <c r="E163" t="s">
-        <v>235</v>
-      </c>
-      <c r="F163" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>173</v>
-      </c>
-      <c r="B164">
-        <v>1867</v>
-      </c>
-      <c r="C164">
-        <v>131</v>
-      </c>
-      <c r="D164" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" t="s">
-        <v>235</v>
-      </c>
-      <c r="F164" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>174</v>
-      </c>
-      <c r="B165">
-        <v>1866</v>
-      </c>
-      <c r="C165">
-        <v>131</v>
-      </c>
-      <c r="D165" t="s">
-        <v>134</v>
-      </c>
-      <c r="E165" t="s">
-        <v>235</v>
-      </c>
-      <c r="F165" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>175</v>
-      </c>
-      <c r="B166">
-        <v>1864</v>
-      </c>
-      <c r="C166">
-        <v>131</v>
-      </c>
-      <c r="D166" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" t="s">
-        <v>235</v>
-      </c>
-      <c r="F166" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>176</v>
-      </c>
-      <c r="B167">
-        <v>1916</v>
-      </c>
-      <c r="C167">
-        <v>128</v>
-      </c>
-      <c r="D167" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167" t="s">
-        <v>235</v>
-      </c>
-      <c r="F167" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>185</v>
-      </c>
-      <c r="B168">
-        <v>1491</v>
-      </c>
-      <c r="C168">
-        <v>130</v>
-      </c>
-      <c r="D168" t="s">
-        <v>170</v>
-      </c>
-      <c r="E168" t="s">
-        <v>235</v>
-      </c>
-      <c r="F168" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>186</v>
-      </c>
-      <c r="B169">
-        <v>730</v>
-      </c>
-      <c r="C169">
-        <v>130</v>
-      </c>
-      <c r="D169" t="s">
-        <v>170</v>
-      </c>
-      <c r="E169" t="s">
-        <v>235</v>
-      </c>
-      <c r="F169" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>187</v>
-      </c>
-      <c r="B170">
-        <v>784</v>
-      </c>
-      <c r="C170">
-        <v>130</v>
-      </c>
-      <c r="D170" t="s">
-        <v>170</v>
-      </c>
-      <c r="E170" t="s">
-        <v>235</v>
-      </c>
-      <c r="F170" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>33</v>
-      </c>
-      <c r="B171">
-        <v>705</v>
-      </c>
-      <c r="C171">
-        <v>104</v>
-      </c>
-      <c r="D171" t="s">
-        <v>12</v>
-      </c>
-      <c r="E171" t="s">
-        <v>57</v>
-      </c>
-      <c r="F171" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172">
-        <v>3590</v>
-      </c>
-      <c r="C172">
-        <v>3</v>
-      </c>
-      <c r="D172" t="s">
-        <v>134</v>
-      </c>
-      <c r="E172" t="s">
-        <v>449</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>2</v>
-      </c>
-      <c r="B173">
-        <v>3561</v>
-      </c>
-      <c r="C173">
-        <v>7</v>
-      </c>
-      <c r="D173" t="s">
-        <v>134</v>
-      </c>
-      <c r="E173" t="s">
-        <v>449</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>3</v>
-      </c>
-      <c r="B174">
-        <v>3616</v>
-      </c>
-      <c r="C174">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174" t="s">
-        <v>449</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>4</v>
-      </c>
-      <c r="B175">
-        <v>3590</v>
-      </c>
-      <c r="C175">
-        <v>7</v>
-      </c>
-      <c r="D175" t="s">
-        <v>134</v>
-      </c>
-      <c r="E175" t="s">
-        <v>449</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>71</v>
-      </c>
-      <c r="B176">
-        <v>5696</v>
-      </c>
-      <c r="C176">
-        <v>200</v>
-      </c>
-      <c r="D176" t="s">
-        <v>96</v>
-      </c>
-      <c r="E176" t="s">
-        <v>119</v>
-      </c>
-      <c r="F176" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>17</v>
-      </c>
-      <c r="B177">
-        <v>4875</v>
-      </c>
-      <c r="C177">
-        <v>33</v>
-      </c>
-      <c r="D177" t="s">
-        <v>439</v>
-      </c>
-      <c r="E177" t="s">
-        <v>435</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>6</v>
-      </c>
-      <c r="B178">
-        <v>4982</v>
-      </c>
-      <c r="C178">
-        <v>30</v>
-      </c>
-      <c r="D178" t="s">
-        <v>134</v>
-      </c>
-      <c r="E178" t="s">
-        <v>8</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>14</v>
-      </c>
-      <c r="B179">
-        <v>4694</v>
-      </c>
-      <c r="C179">
-        <v>28</v>
-      </c>
-      <c r="D179" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179" t="s">
-        <v>8</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>18</v>
-      </c>
-      <c r="B180">
-        <v>4875</v>
-      </c>
-      <c r="C180">
-        <v>33</v>
-      </c>
-      <c r="D180" t="s">
-        <v>439</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>25</v>
-      </c>
-      <c r="B181">
-        <v>536</v>
-      </c>
-      <c r="C181">
-        <v>101</v>
-      </c>
-      <c r="D181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>26</v>
-      </c>
-      <c r="B182">
-        <v>534</v>
-      </c>
-      <c r="C182">
-        <v>101</v>
-      </c>
-      <c r="D182" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>27</v>
-      </c>
-      <c r="B183">
-        <v>537</v>
-      </c>
-      <c r="C183">
-        <v>101</v>
-      </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>8</v>
-      </c>
-      <c r="F183" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>28</v>
-      </c>
-      <c r="B184">
-        <v>535</v>
-      </c>
-      <c r="C184">
-        <v>101</v>
-      </c>
-      <c r="D184" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>30</v>
-      </c>
-      <c r="B185">
-        <v>567</v>
-      </c>
-      <c r="C185">
-        <v>103</v>
-      </c>
-      <c r="D185" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>31</v>
-      </c>
-      <c r="B186">
-        <v>670</v>
-      </c>
-      <c r="C186">
-        <v>103</v>
-      </c>
-      <c r="D186" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" t="s">
-        <v>8</v>
-      </c>
-      <c r="F186" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>43</v>
-      </c>
-      <c r="B187">
-        <v>622</v>
-      </c>
-      <c r="C187">
-        <v>105</v>
-      </c>
-      <c r="D187" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>45</v>
-      </c>
-      <c r="B188">
-        <v>578</v>
-      </c>
-      <c r="C188">
-        <v>108</v>
-      </c>
-      <c r="D188" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>46</v>
-      </c>
-      <c r="B189">
-        <v>622</v>
-      </c>
-      <c r="C189">
-        <v>108</v>
-      </c>
-      <c r="D189" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>47</v>
-      </c>
-      <c r="B190">
-        <v>634</v>
-      </c>
-      <c r="C190">
-        <v>108</v>
-      </c>
-      <c r="D190" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>61</v>
-      </c>
-      <c r="B191">
-        <v>5737</v>
-      </c>
-      <c r="C191">
-        <v>203</v>
-      </c>
-      <c r="D191" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" t="s">
-        <v>8</v>
-      </c>
-      <c r="F191" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>62</v>
-      </c>
-      <c r="B192">
-        <v>5738</v>
-      </c>
-      <c r="C192">
-        <v>203</v>
-      </c>
-      <c r="D192" t="s">
-        <v>96</v>
-      </c>
-      <c r="E192" t="s">
-        <v>8</v>
-      </c>
-      <c r="F192" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>63</v>
-      </c>
-      <c r="B193">
-        <v>5740</v>
-      </c>
-      <c r="C193">
-        <v>203</v>
-      </c>
-      <c r="D193" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>64</v>
-      </c>
-      <c r="B194">
-        <v>5739</v>
-      </c>
-      <c r="C194">
-        <v>203</v>
-      </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>66</v>
-      </c>
-      <c r="B195">
-        <v>5688</v>
-      </c>
-      <c r="C195">
-        <v>206</v>
-      </c>
-      <c r="D195" t="s">
-        <v>96</v>
-      </c>
-      <c r="E195" t="s">
-        <v>8</v>
-      </c>
-      <c r="F195" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>67</v>
-      </c>
-      <c r="B196">
-        <v>5680</v>
-      </c>
-      <c r="C196">
-        <v>206</v>
-      </c>
-      <c r="D196" t="s">
-        <v>96</v>
-      </c>
-      <c r="E196" t="s">
-        <v>8</v>
-      </c>
-      <c r="F196" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>68</v>
-      </c>
-      <c r="B197">
-        <v>5687</v>
-      </c>
-      <c r="C197">
-        <v>206</v>
-      </c>
-      <c r="D197" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>69</v>
-      </c>
-      <c r="B198">
-        <v>5679</v>
-      </c>
-      <c r="C198">
-        <v>206</v>
-      </c>
-      <c r="D198" t="s">
-        <v>96</v>
-      </c>
-      <c r="E198" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>76</v>
-      </c>
-      <c r="B199">
-        <v>5620</v>
-      </c>
-      <c r="C199">
-        <v>204</v>
-      </c>
-      <c r="D199" t="s">
-        <v>96</v>
-      </c>
-      <c r="E199" t="s">
-        <v>8</v>
-      </c>
-      <c r="F199" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>77</v>
-      </c>
-      <c r="B200">
-        <v>5625</v>
-      </c>
-      <c r="C200">
-        <v>204</v>
-      </c>
-      <c r="D200" t="s">
-        <v>96</v>
-      </c>
-      <c r="E200" t="s">
-        <v>8</v>
-      </c>
-      <c r="F200" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>78</v>
-      </c>
-      <c r="B201">
-        <v>5626</v>
-      </c>
-      <c r="C201">
-        <v>204</v>
-      </c>
-      <c r="D201" t="s">
-        <v>96</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>79</v>
-      </c>
-      <c r="B202">
-        <v>5619</v>
-      </c>
-      <c r="C202">
-        <v>204</v>
-      </c>
-      <c r="D202" t="s">
-        <v>96</v>
-      </c>
-      <c r="E202" t="s">
-        <v>8</v>
-      </c>
-      <c r="F202" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>115</v>
-      </c>
-      <c r="B203">
-        <v>5085</v>
-      </c>
-      <c r="C203">
-        <v>249</v>
-      </c>
-      <c r="D203" t="s">
-        <v>134</v>
-      </c>
-      <c r="E203" t="s">
-        <v>8</v>
-      </c>
-      <c r="F203" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>116</v>
-      </c>
-      <c r="B204">
-        <v>5070</v>
-      </c>
-      <c r="C204">
-        <v>249</v>
-      </c>
-      <c r="D204" t="s">
-        <v>134</v>
-      </c>
-      <c r="E204" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>135</v>
-      </c>
-      <c r="B205">
-        <v>5044</v>
-      </c>
-      <c r="C205">
-        <v>246</v>
-      </c>
-      <c r="D205" t="s">
-        <v>134</v>
-      </c>
-      <c r="E205" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>156</v>
-      </c>
-      <c r="B206">
-        <v>5041</v>
-      </c>
-      <c r="C206">
-        <v>276</v>
-      </c>
-      <c r="D206" t="s">
-        <v>134</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>192</v>
-      </c>
-      <c r="B207">
-        <v>3766</v>
-      </c>
-      <c r="C207">
-        <v>306</v>
-      </c>
-      <c r="D207" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207" t="s">
-        <v>320</v>
-      </c>
-      <c r="F207" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>193</v>
-      </c>
-      <c r="B208">
-        <v>3766</v>
-      </c>
-      <c r="C208">
-        <v>306</v>
-      </c>
-      <c r="D208" t="s">
-        <v>134</v>
-      </c>
-      <c r="E208" t="s">
-        <v>320</v>
-      </c>
-      <c r="F208" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>194</v>
-      </c>
-      <c r="B209">
-        <v>3766</v>
-      </c>
-      <c r="C209">
-        <v>306</v>
-      </c>
-      <c r="D209" t="s">
-        <v>170</v>
-      </c>
-      <c r="E209" t="s">
-        <v>320</v>
-      </c>
-      <c r="F209" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>199</v>
-      </c>
-      <c r="B210">
-        <v>3856</v>
-      </c>
-      <c r="C210">
-        <v>308</v>
-      </c>
-      <c r="D210" t="s">
-        <v>134</v>
-      </c>
-      <c r="E210" t="s">
-        <v>320</v>
-      </c>
-      <c r="F210" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>3808</v>
-      </c>
-      <c r="C211">
-        <v>315</v>
-      </c>
-      <c r="D211" t="s">
-        <v>134</v>
-      </c>
-      <c r="E211" t="s">
-        <v>320</v>
-      </c>
-      <c r="F211" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>3808</v>
-      </c>
-      <c r="C212">
-        <v>315</v>
-      </c>
-      <c r="D212" t="s">
-        <v>134</v>
-      </c>
-      <c r="E212" t="s">
-        <v>320</v>
-      </c>
-      <c r="F212" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>215</v>
-      </c>
-      <c r="B213">
-        <v>3737</v>
-      </c>
-      <c r="C213">
-        <v>317</v>
-      </c>
-      <c r="D213" t="s">
-        <v>134</v>
-      </c>
-      <c r="E213" t="s">
-        <v>320</v>
-      </c>
-      <c r="F213" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>222</v>
-      </c>
-      <c r="B214">
-        <v>3748</v>
-      </c>
-      <c r="C214">
-        <v>307</v>
-      </c>
-      <c r="D214" t="s">
-        <v>134</v>
-      </c>
-      <c r="E214" t="s">
-        <v>320</v>
-      </c>
-      <c r="F214" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>228</v>
-      </c>
-      <c r="B215">
-        <v>3819</v>
-      </c>
-      <c r="C215">
-        <v>309</v>
-      </c>
-      <c r="D215" t="s">
-        <v>134</v>
-      </c>
-      <c r="E215" t="s">
-        <v>320</v>
-      </c>
-      <c r="F215" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>229</v>
-      </c>
-      <c r="B216">
-        <v>3819</v>
-      </c>
-      <c r="C216">
-        <v>309</v>
-      </c>
-      <c r="D216" t="s">
-        <v>134</v>
-      </c>
-      <c r="E216" t="s">
-        <v>320</v>
-      </c>
-      <c r="F216" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>237</v>
-      </c>
-      <c r="B217">
-        <v>3701</v>
-      </c>
-      <c r="C217">
-        <v>310</v>
-      </c>
-      <c r="D217" t="s">
-        <v>134</v>
-      </c>
-      <c r="E217" t="s">
-        <v>320</v>
-      </c>
-      <c r="F217" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>243</v>
-      </c>
-      <c r="B218">
-        <v>3787</v>
-      </c>
-      <c r="C218">
-        <v>311</v>
-      </c>
-      <c r="D218" t="s">
-        <v>134</v>
-      </c>
-      <c r="E218" t="s">
-        <v>320</v>
-      </c>
-      <c r="F218" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>50</v>
-      </c>
-      <c r="B219">
-        <v>4100</v>
-      </c>
-      <c r="C219">
-        <v>192</v>
-      </c>
-      <c r="D219" t="s">
-        <v>134</v>
-      </c>
-      <c r="E219" t="s">
-        <v>206</v>
-      </c>
-      <c r="F219" s="2">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>54</v>
-      </c>
-      <c r="B220">
-        <v>4161</v>
-      </c>
-      <c r="C220">
-        <v>193</v>
-      </c>
-      <c r="D220" t="s">
-        <v>134</v>
-      </c>
-      <c r="E220" t="s">
-        <v>206</v>
-      </c>
-      <c r="F220" s="2">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>195</v>
-      </c>
-      <c r="B221">
-        <v>3766</v>
-      </c>
-      <c r="C221">
-        <v>306</v>
-      </c>
-      <c r="D221" t="s">
-        <v>134</v>
-      </c>
-      <c r="E221" t="s">
-        <v>329</v>
-      </c>
-      <c r="F221" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>196</v>
-      </c>
-      <c r="B222">
-        <v>3766</v>
-      </c>
-      <c r="C222">
-        <v>306</v>
-      </c>
-      <c r="D222" t="s">
-        <v>134</v>
-      </c>
-      <c r="E222" t="s">
-        <v>329</v>
-      </c>
-      <c r="F222" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>197</v>
-      </c>
-      <c r="B223">
-        <v>3766</v>
-      </c>
-      <c r="C223">
-        <v>306</v>
-      </c>
-      <c r="D223" t="s">
-        <v>170</v>
-      </c>
-      <c r="E223" t="s">
-        <v>329</v>
-      </c>
-      <c r="F223" s="2">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>200</v>
-      </c>
-      <c r="B224">
-        <v>3864</v>
-      </c>
-      <c r="C224">
-        <v>308</v>
-      </c>
-      <c r="D224" t="s">
-        <v>134</v>
-      </c>
-      <c r="E224" t="s">
-        <v>329</v>
-      </c>
-      <c r="F224" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>201</v>
-      </c>
-      <c r="B225">
-        <v>3864</v>
-      </c>
-      <c r="C225">
-        <v>308</v>
-      </c>
-      <c r="D225" t="s">
-        <v>134</v>
-      </c>
-      <c r="E225" t="s">
-        <v>329</v>
-      </c>
-      <c r="F225" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>202</v>
-      </c>
-      <c r="B226">
-        <v>3856</v>
-      </c>
-      <c r="C226">
-        <v>308</v>
-      </c>
-      <c r="D226" t="s">
-        <v>134</v>
-      </c>
-      <c r="E226" t="s">
-        <v>329</v>
-      </c>
-      <c r="F226" s="2">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>204</v>
-      </c>
-      <c r="B227">
-        <v>3700</v>
-      </c>
-      <c r="C227">
-        <v>312</v>
-      </c>
-      <c r="D227" t="s">
-        <v>134</v>
-      </c>
-      <c r="E227" t="s">
-        <v>329</v>
-      </c>
-      <c r="F227" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>206</v>
-      </c>
-      <c r="B228">
-        <v>3725</v>
-      </c>
-      <c r="C228">
-        <v>314</v>
-      </c>
-      <c r="D228" t="s">
-        <v>134</v>
-      </c>
-      <c r="E228" t="s">
-        <v>329</v>
-      </c>
-      <c r="F228" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>207</v>
-      </c>
-      <c r="B229">
-        <v>3721</v>
-      </c>
-      <c r="C229">
-        <v>314</v>
-      </c>
-      <c r="D229" t="s">
-        <v>134</v>
-      </c>
-      <c r="E229" t="s">
-        <v>329</v>
-      </c>
-      <c r="F229" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>211</v>
-      </c>
-      <c r="B230">
-        <v>3808</v>
-      </c>
-      <c r="C230">
-        <v>315</v>
-      </c>
-      <c r="D230" t="s">
-        <v>134</v>
-      </c>
-      <c r="E230" t="s">
-        <v>329</v>
-      </c>
-      <c r="F230" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>212</v>
-      </c>
-      <c r="B231">
-        <v>3808</v>
-      </c>
-      <c r="C231">
-        <v>315</v>
-      </c>
-      <c r="D231" t="s">
-        <v>170</v>
-      </c>
-      <c r="E231" t="s">
-        <v>329</v>
-      </c>
-      <c r="F231" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>216</v>
-      </c>
-      <c r="B232">
-        <v>3737</v>
-      </c>
-      <c r="C232">
-        <v>317</v>
-      </c>
-      <c r="D232" t="s">
-        <v>134</v>
-      </c>
-      <c r="E232" t="s">
-        <v>329</v>
-      </c>
-      <c r="F232" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>217</v>
-      </c>
-      <c r="B233">
-        <v>3737</v>
-      </c>
-      <c r="C233">
-        <v>317</v>
-      </c>
-      <c r="D233" t="s">
-        <v>134</v>
-      </c>
-      <c r="E233" t="s">
-        <v>329</v>
-      </c>
-      <c r="F233" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>219</v>
-      </c>
-      <c r="B234">
-        <v>3835</v>
-      </c>
-      <c r="C234">
-        <v>318</v>
-      </c>
-      <c r="D234" t="s">
-        <v>134</v>
-      </c>
-      <c r="E234" t="s">
-        <v>329</v>
-      </c>
-      <c r="F234" s="2">
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>223</v>
-      </c>
-      <c r="B235">
-        <v>3748</v>
-      </c>
-      <c r="C235">
-        <v>307</v>
-      </c>
-      <c r="D235" t="s">
-        <v>134</v>
-      </c>
-      <c r="E235" t="s">
-        <v>329</v>
-      </c>
-      <c r="F235" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>224</v>
-      </c>
-      <c r="B236">
-        <v>3748</v>
-      </c>
-      <c r="C236">
-        <v>307</v>
-      </c>
-      <c r="D236" t="s">
-        <v>134</v>
-      </c>
-      <c r="E236" t="s">
-        <v>329</v>
-      </c>
-      <c r="F236" s="2">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>230</v>
-      </c>
-      <c r="B237">
-        <v>3819</v>
-      </c>
-      <c r="C237">
-        <v>309</v>
-      </c>
-      <c r="D237" t="s">
-        <v>134</v>
-      </c>
-      <c r="E237" t="s">
-        <v>329</v>
-      </c>
-      <c r="F237" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>231</v>
-      </c>
-      <c r="B238">
-        <v>3819</v>
-      </c>
-      <c r="C238">
-        <v>309</v>
-      </c>
-      <c r="D238" t="s">
-        <v>134</v>
-      </c>
-      <c r="E238" t="s">
-        <v>329</v>
-      </c>
-      <c r="F238" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>232</v>
-      </c>
-      <c r="B239">
-        <v>3819</v>
-      </c>
-      <c r="C239">
-        <v>309</v>
-      </c>
-      <c r="D239" t="s">
-        <v>134</v>
-      </c>
-      <c r="E239" t="s">
-        <v>329</v>
-      </c>
-      <c r="F239" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>3703</v>
-      </c>
-      <c r="C240">
-        <v>310</v>
-      </c>
-      <c r="D240" t="s">
-        <v>134</v>
-      </c>
-      <c r="E240" t="s">
-        <v>329</v>
-      </c>
-      <c r="F240" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>3703</v>
-      </c>
-      <c r="C241">
-        <v>310</v>
-      </c>
-      <c r="D241" t="s">
-        <v>134</v>
-      </c>
-      <c r="E241" t="s">
-        <v>329</v>
-      </c>
-      <c r="F241" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>3706</v>
-      </c>
-      <c r="C242">
-        <v>310</v>
-      </c>
-      <c r="D242" t="s">
-        <v>134</v>
-      </c>
-      <c r="E242" t="s">
-        <v>329</v>
-      </c>
-      <c r="F242" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>3706</v>
-      </c>
-      <c r="C243">
-        <v>310</v>
-      </c>
-      <c r="D243" t="s">
-        <v>134</v>
-      </c>
-      <c r="E243" t="s">
-        <v>329</v>
-      </c>
-      <c r="F243" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>244</v>
-      </c>
-      <c r="B244">
-        <v>3787</v>
-      </c>
-      <c r="C244">
-        <v>311</v>
-      </c>
-      <c r="D244" t="s">
-        <v>134</v>
-      </c>
-      <c r="E244" t="s">
-        <v>329</v>
-      </c>
-      <c r="F244" s="2">
-        <v>44404</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F244">
-    <sortCondition ref="E1:E244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E244">
+    <sortCondition ref="D1:D244"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
